--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="526">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,81 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +458,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,175 +473,43 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -1178,6 +1126,9 @@
   </si>
   <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codified order entry details which are based on order context.</t>
@@ -1850,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1860,7 +1811,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3043,11 +2994,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -3056,10 +3009,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -3068,13 +3021,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3125,19 +3078,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -3146,7 +3099,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -3157,24 +3110,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
@@ -3183,13 +3136,17 @@
         <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3225,19 +3182,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3258,7 +3215,7 @@
         <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>44</v>
@@ -3269,7 +3226,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3277,31 +3234,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3309,7 +3266,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3339,59 +3296,59 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
@@ -3403,18 +3360,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3439,10 +3398,10 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>44</v>
@@ -3451,23 +3410,25 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3476,34 +3437,32 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3518,13 +3477,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3551,10 +3510,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3575,7 +3534,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3587,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3596,7 +3555,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3605,15 +3564,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3623,7 +3580,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3632,15 +3589,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3677,19 +3636,19 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3698,7 +3657,7 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
@@ -3710,7 +3669,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3721,18 +3680,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3741,22 +3700,22 @@
         <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3781,13 +3740,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3805,28 +3764,28 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3837,7 +3796,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3848,10 +3807,10 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3860,18 +3819,20 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3895,35 +3856,37 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3932,34 +3895,32 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>52</v>
@@ -3974,30 +3935,32 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -4033,13 +3996,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -4048,24 +4011,24 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4073,7 +4036,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -4085,18 +4048,20 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4109,7 +4074,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -4145,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4157,16 +4122,16 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -4177,18 +4142,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -4197,20 +4162,18 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4247,40 +4210,40 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -4291,7 +4254,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4308,26 +4271,24 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4351,13 +4312,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4375,7 +4336,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4393,10 +4354,10 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4407,7 +4368,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4418,7 +4379,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4430,20 +4391,18 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4467,13 +4426,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4491,13 +4450,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4506,13 +4465,13 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4523,7 +4482,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4531,10 +4490,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4549,29 +4508,27 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4607,13 +4564,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4622,13 +4579,13 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4639,18 +4596,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4662,17 +4619,15 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4685,7 +4640,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4721,13 +4676,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4736,13 +4691,13 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4753,18 +4708,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4776,13 +4731,13 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4833,13 +4788,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4848,13 +4803,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4863,13 +4818,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4879,7 +4834,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4888,18 +4843,20 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4947,7 +4904,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4962,13 +4919,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4977,9 +4934,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4987,31 +4944,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5037,13 +4994,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5061,13 +5018,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5076,24 +5033,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5101,31 +5058,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5151,13 +5108,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5175,13 +5132,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5190,38 +5147,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5230,16 +5187,20 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5263,13 +5224,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5287,7 +5246,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5302,16 +5261,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5319,18 +5278,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5339,16 +5298,16 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5399,28 +5358,28 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -5429,45 +5388,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5503,40 +5460,40 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5545,9 +5502,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5555,33 +5512,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5605,13 +5564,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5629,13 +5588,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5644,24 +5603,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5669,7 +5628,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5678,23 +5637,21 @@
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5719,13 +5676,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5743,10 +5700,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5755,63 +5712,61 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5835,29 +5790,31 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5869,19 +5826,19 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5889,7 +5846,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5909,25 +5866,29 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>44</v>
@@ -5969,7 +5930,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5981,16 +5942,16 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -6001,18 +5962,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6021,19 +5982,19 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6071,40 +6032,40 @@
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -6115,7 +6076,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6126,7 +6087,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6138,26 +6099,24 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -6199,13 +6158,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -6217,10 +6176,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6231,7 +6190,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6251,19 +6210,21 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6311,7 +6272,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6323,16 +6284,16 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6343,18 +6304,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6363,21 +6324,23 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6413,40 +6376,40 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6457,7 +6420,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6480,26 +6443,26 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>44</v>
@@ -6541,7 +6504,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6559,10 +6522,10 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6573,7 +6536,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6596,22 +6559,22 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6631,13 +6594,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6655,7 +6618,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6670,16 +6633,16 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6687,7 +6650,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6704,30 +6667,34 @@
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q43" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>44</v>
@@ -6769,7 +6736,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6784,13 +6751,13 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6799,23 +6766,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6824,18 +6791,18 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6859,13 +6826,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6883,7 +6848,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6898,38 +6863,38 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
@@ -6938,20 +6903,18 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6975,13 +6938,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6999,16 +6962,16 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>64</v>
@@ -7017,21 +6980,21 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7054,19 +7017,17 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7115,7 +7076,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7133,10 +7094,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7145,9 +7106,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7155,13 +7116,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7170,22 +7131,20 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7205,13 +7164,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7229,10 +7188,10 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>52</v>
@@ -7244,28 +7203,28 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7278,32 +7237,26 @@
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7347,7 +7300,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7362,32 +7315,32 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
@@ -7402,17 +7355,15 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7437,11 +7388,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7459,7 +7412,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7474,35 +7427,35 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>53</v>
@@ -7514,17 +7467,15 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>135</v>
+        <v>400</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7549,13 +7500,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7573,16 +7524,16 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>64</v>
@@ -7591,25 +7542,25 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>370</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7619,7 +7570,7 @@
         <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
@@ -7628,18 +7579,16 @@
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7687,7 +7636,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7702,28 +7651,28 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>415</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>44</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7742,15 +7691,17 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7799,10 +7750,10 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>52</v>
@@ -7814,28 +7765,28 @@
         <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7845,7 +7796,7 @@
         <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>44</v>
@@ -7854,15 +7805,17 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>397</v>
+        <v>156</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7887,13 +7840,13 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
@@ -7911,7 +7864,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7926,35 +7879,35 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>404</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>53</v>
@@ -7966,15 +7919,17 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -8023,13 +7978,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -8038,24 +7993,24 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8066,10 +8021,10 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>44</v>
@@ -8078,13 +8033,13 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>416</v>
+        <v>156</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8111,13 +8066,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8135,13 +8090,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8156,32 +8111,32 @@
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>438</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>44</v>
@@ -8190,13 +8145,13 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8247,13 +8202,13 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
@@ -8262,35 +8217,35 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>429</v>
+        <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>432</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>434</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>53</v>
@@ -8302,16 +8257,16 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>435</v>
+        <v>156</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8337,13 +8292,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8361,13 +8316,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8376,38 +8331,38 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>445</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8416,16 +8371,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>135</v>
+        <v>469</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8451,13 +8406,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>449</v>
+        <v>44</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8475,13 +8430,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8490,28 +8445,28 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8521,26 +8476,24 @@
         <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8589,7 +8542,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8604,28 +8557,28 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>484</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8635,24 +8588,26 @@
         <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>135</v>
+        <v>485</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -8677,13 +8632,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8701,7 +8656,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8716,16 +8671,16 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8733,7 +8688,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8756,15 +8711,17 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8813,7 +8770,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8831,13 +8788,13 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8845,11 +8802,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8868,18 +8825,20 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8903,13 +8862,13 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -8927,7 +8886,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8942,24 +8901,24 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>508</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8973,26 +8932,24 @@
         <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>486</v>
+        <v>12</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9041,7 +8998,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9056,24 +9013,24 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>490</v>
+        <v>363</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>44</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9084,25 +9041,25 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>493</v>
+        <v>54</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9153,13 +9110,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9168,13 +9125,13 @@
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>496</v>
+        <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>497</v>
+        <v>363</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9183,13 +9140,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9199,7 +9156,7 @@
         <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>44</v>
@@ -9208,16 +9165,16 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9267,7 +9224,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9282,591 +9239,23 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>506</v>
+        <v>95</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN70">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9876,7 +9265,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -1907,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1995,77 +1995,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -1336,16 +1336,19 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1359,6 +1362,9 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2084,7 +2090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2094,7 +2100,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -7613,7 +7619,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>424</v>
       </c>
@@ -7623,7 +7629,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
@@ -7638,13 +7644,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7683,16 +7689,14 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>424</v>
@@ -7710,32 +7714,34 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
@@ -7750,13 +7756,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>435</v>
+        <v>220</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7783,13 +7789,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7807,7 +7813,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7822,28 +7828,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7862,13 +7868,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7895,13 +7901,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7919,7 +7925,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7934,32 +7940,32 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
@@ -7974,17 +7980,15 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8033,7 +8037,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8048,32 +8052,32 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
@@ -8088,16 +8092,16 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>191</v>
+        <v>456</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8123,13 +8127,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8147,7 +8151,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8162,35 +8166,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8202,16 +8206,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>476</v>
+        <v>191</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8237,13 +8241,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8261,13 +8265,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8276,28 +8280,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8307,7 +8311,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8316,15 +8320,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8349,13 +8355,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8373,7 +8379,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8388,16 +8394,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8405,7 +8411,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8428,13 +8434,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>490</v>
+        <v>191</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8461,13 +8467,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8485,7 +8491,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8506,18 +8512,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8531,7 +8537,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8540,17 +8546,15 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>191</v>
+        <v>492</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8575,13 +8579,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8599,7 +8603,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8614,24 +8618,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8645,7 +8649,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8654,16 +8658,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>504</v>
+        <v>191</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8689,13 +8693,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8713,7 +8717,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8728,16 +8732,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8745,7 +8749,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8765,18 +8769,20 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8825,7 +8831,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8840,28 +8846,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8871,7 +8877,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8880,17 +8886,15 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8939,7 +8943,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8954,13 +8958,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8969,13 +8973,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8985,25 +8989,25 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9053,7 +9057,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9068,13 +9072,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9083,13 +9087,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9099,7 +9103,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9108,20 +9112,18 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>191</v>
+        <v>530</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9145,13 +9147,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9169,7 +9171,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9187,25 +9189,25 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9221,19 +9223,23 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>545</v>
+        <v>191</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>48</v>
+        <v>538</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9257,13 +9263,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9281,7 +9287,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9296,24 +9302,24 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>398</v>
+        <v>534</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9324,7 +9330,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9333,16 +9339,16 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>547</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>551</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9393,13 +9399,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9408,24 +9414,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9436,29 +9442,27 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9507,13 +9511,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9522,23 +9526,137 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="M66" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9548,7 +9666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -1336,19 +1336,16 @@
 </t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2090,7 +2084,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2100,7 +2094,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -7619,7 +7613,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>424</v>
       </c>
@@ -7629,7 +7623,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
@@ -7644,13 +7638,13 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>220</v>
+        <v>426</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7689,14 +7683,16 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AB49" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>424</v>
@@ -7714,34 +7710,32 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
@@ -7756,13 +7750,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7789,13 +7783,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7813,7 +7807,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7828,28 +7822,28 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7868,13 +7862,13 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7901,13 +7895,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7925,7 +7919,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7940,32 +7934,32 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
@@ -7980,15 +7974,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8037,7 +8033,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8052,32 +8048,32 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
@@ -8092,16 +8088,16 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>456</v>
+        <v>191</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8127,13 +8123,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8151,7 +8147,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8166,35 +8162,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8206,16 +8202,16 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>191</v>
+        <v>476</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8241,13 +8237,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8265,13 +8261,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8280,28 +8276,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8311,7 +8307,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8320,17 +8316,15 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>478</v>
+        <v>191</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8355,13 +8349,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8379,7 +8373,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8394,16 +8388,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8411,7 +8405,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8434,13 +8428,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>490</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8467,31 +8461,31 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8512,18 +8506,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8537,7 +8531,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8546,15 +8540,17 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>492</v>
+        <v>191</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8579,13 +8575,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8603,7 +8599,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8618,24 +8614,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8649,7 +8645,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8658,16 +8654,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>191</v>
+        <v>504</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8693,13 +8689,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8717,7 +8713,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8732,16 +8728,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8749,7 +8745,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8769,20 +8765,18 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8831,7 +8825,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8846,28 +8840,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8877,7 +8871,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8886,15 +8880,17 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8943,7 +8939,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8958,13 +8954,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8973,13 +8969,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8989,25 +8985,25 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9057,7 +9053,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9072,13 +9068,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9087,13 +9083,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9103,7 +9099,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9112,18 +9108,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>530</v>
+        <v>191</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9147,13 +9145,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9171,7 +9169,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9189,25 +9187,25 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9223,23 +9221,19 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>191</v>
+        <v>545</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>538</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9263,13 +9257,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9287,7 +9281,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9302,24 +9296,24 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>534</v>
+        <v>398</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9330,7 +9324,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9339,16 +9333,16 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>547</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>48</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9399,13 +9393,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9414,24 +9408,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9442,27 +9436,29 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>555</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9511,13 +9507,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9526,137 +9522,23 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>398</v>
+        <v>130</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9666,7 +9548,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -475,6 +475,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -485,6 +565,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -552,18 +661,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -573,12 +670,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -612,10 +703,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -626,9 +713,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -870,7 +954,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1234,9 +1318,6 @@
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
@@ -1556,7 +1637,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1590,7 +1671,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2084,7 +2165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2094,7 +2175,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2117,7 +2198,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3061,7 +3142,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3277,13 +3358,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3292,10 +3371,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3304,13 +3383,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3361,19 +3440,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3382,7 +3461,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3393,24 +3472,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
@@ -3419,17 +3498,13 @@
         <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3465,19 +3540,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3498,7 +3573,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3509,7 +3584,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3517,31 +3592,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3549,7 +3624,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3579,59 +3654,59 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3643,20 +3718,18 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3681,10 +3754,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3693,25 +3766,23 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3720,32 +3791,34 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
@@ -3760,13 +3833,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3793,13 +3866,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3817,7 +3888,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3829,7 +3900,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -3838,7 +3909,7 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3847,13 +3918,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3863,7 +3936,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3872,17 +3945,15 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3919,19 +3990,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3940,7 +4011,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -3952,7 +4023,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3961,11 +4032,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3974,32 +4047,28 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4023,13 +4092,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4047,28 +4116,28 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4077,11 +4146,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4093,29 +4164,27 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4139,13 +4208,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4163,28 +4232,28 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4195,55 +4264,55 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4279,28 +4348,28 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4311,7 +4380,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4319,13 +4388,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4334,16 +4403,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4357,7 +4426,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4381,25 +4450,23 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4408,26 +4475,28 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4448,15 +4517,17 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4505,13 +4576,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4520,24 +4591,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4557,20 +4628,18 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4619,7 +4688,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4631,16 +4700,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4651,11 +4720,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4671,19 +4740,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4721,19 +4790,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4745,16 +4814,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4765,7 +4834,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4776,30 +4845,32 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4823,13 +4894,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4847,13 +4918,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4862,13 +4933,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4879,18 +4950,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4902,16 +4973,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4935,13 +5010,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4959,13 +5034,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4974,13 +5049,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4991,18 +5066,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5014,28 +5089,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5071,13 +5150,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5086,13 +5165,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5101,23 +5180,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5126,20 +5205,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5151,7 +5228,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5187,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5202,13 +5279,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5217,9 +5294,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5227,32 +5304,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5277,13 +5352,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5301,10 +5376,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5316,24 +5391,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5341,7 +5416,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5350,22 +5425,22 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5391,13 +5466,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5415,10 +5490,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5430,24 +5505,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5455,13 +5530,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5470,20 +5545,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5507,11 +5580,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5529,7 +5604,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5544,16 +5619,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5561,7 +5636,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5572,7 +5647,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5581,18 +5656,20 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5641,28 +5718,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5673,11 +5750,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5693,20 +5770,18 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5743,19 +5818,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5767,16 +5842,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5787,11 +5862,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5810,20 +5885,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5871,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5886,13 +5957,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5901,13 +5972,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5917,25 +5988,29 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5983,7 +6058,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5995,16 +6070,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6013,41 +6088,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6073,63 +6148,63 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6137,7 +6212,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6146,32 +6221,30 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6189,13 +6262,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6213,10 +6286,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6228,24 +6301,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6253,13 +6326,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6268,18 +6341,20 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6303,13 +6378,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6327,13 +6400,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6345,13 +6418,13 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6359,7 +6432,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6379,27 +6452,25 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6441,7 +6512,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6453,16 +6524,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6473,18 +6544,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6493,21 +6564,21 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6543,40 +6614,40 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6587,7 +6658,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6598,7 +6669,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6610,19 +6681,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6671,13 +6742,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6689,10 +6760,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6703,7 +6774,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6723,23 +6794,19 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6787,7 +6854,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6799,16 +6866,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6819,18 +6886,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6839,25 +6906,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6877,55 +6944,55 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6933,7 +7000,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6950,35 +7017,33 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7019,7 +7084,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7034,13 +7099,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7049,23 +7114,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7074,16 +7139,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7109,11 +7174,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7131,7 +7198,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7146,38 +7213,38 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7186,24 +7253,24 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7221,13 +7288,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7245,16 +7312,16 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
@@ -7263,21 +7330,21 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7300,17 +7367,17 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>400</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7359,7 +7426,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7377,10 +7444,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7389,9 +7456,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7399,13 +7466,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7414,16 +7481,20 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7471,10 +7542,10 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
@@ -7486,28 +7557,28 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7526,16 +7597,20 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>416</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7583,7 +7658,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7598,28 +7673,28 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7629,7 +7704,7 @@
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7638,20 +7713,22 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>426</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7671,13 +7748,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7695,7 +7772,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7710,24 +7787,24 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7741,29 +7818,35 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7783,13 +7866,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7807,7 +7890,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7822,32 +7905,32 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
@@ -7862,15 +7945,17 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>444</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7895,13 +7980,11 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7919,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7934,35 +8017,35 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>451</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7974,16 +8057,16 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>454</v>
+        <v>162</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8009,13 +8092,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8033,43 +8116,43 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>462</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8079,7 +8162,7 @@
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8088,18 +8171,18 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8123,13 +8206,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8147,7 +8230,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8162,16 +8245,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8179,18 +8262,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8202,17 +8285,15 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8261,13 +8342,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8276,35 +8357,35 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8316,13 +8397,13 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>191</v>
+        <v>442</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8349,13 +8430,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8373,13 +8454,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8388,38 +8469,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8428,13 +8509,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8485,13 +8566,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8500,24 +8581,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8528,7 +8609,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8540,17 +8621,15 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>191</v>
+        <v>461</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8575,13 +8654,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>394</v>
+        <v>165</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8599,13 +8678,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8614,38 +8693,38 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8654,17 +8733,15 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8713,13 +8790,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -8728,55 +8805,57 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8825,13 +8904,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8840,35 +8919,35 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8877,19 +8956,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>520</v>
+        <v>162</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8915,13 +8994,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8939,13 +9018,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8954,28 +9033,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8985,7 +9064,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8994,16 +9073,16 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9053,7 +9132,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9068,28 +9147,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9099,7 +9178,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9108,20 +9187,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9145,13 +9220,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>394</v>
+        <v>165</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9169,7 +9244,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9187,21 +9262,21 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9215,22 +9290,22 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>48</v>
+        <v>510</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9281,7 +9356,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9296,24 +9371,24 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9324,7 +9399,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9336,15 +9411,17 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9369,13 +9446,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9393,13 +9470,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9408,16 +9485,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>398</v>
+        <v>526</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9425,7 +9502,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9445,19 +9522,19 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9507,7 +9584,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9522,23 +9599,817 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9548,7 +10419,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="592">
   <si>
     <t>Property</t>
   </si>
@@ -425,6 +425,9 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -592,6 +595,19 @@
   </si>
   <si>
     <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2165,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3142,7 +3158,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3157,13 +3173,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3202,17 +3218,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3224,7 +3240,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3247,7 +3263,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3269,16 +3285,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3328,7 +3344,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3337,19 +3353,19 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3360,7 +3376,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3386,10 +3402,10 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3440,7 +3456,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3461,7 +3477,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3472,7 +3488,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3495,13 +3511,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3540,19 +3556,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3564,7 +3580,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3584,7 +3600,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3610,13 +3626,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3624,7 +3640,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3666,7 +3682,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3698,7 +3714,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3721,13 +3737,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3754,10 +3770,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3766,17 +3782,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3808,10 +3824,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3833,13 +3849,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3866,11 +3882,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3888,7 +3904,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3923,7 +3939,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -3945,13 +3961,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4002,7 +4018,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4011,10 +4027,10 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4037,7 +4053,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4059,13 +4075,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4116,7 +4132,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4125,10 +4141,10 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4151,14 +4167,14 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -4173,16 +4189,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4232,7 +4248,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4241,10 +4257,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4262,45 +4278,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4348,7 +4362,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4357,10 +4371,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4369,7 +4383,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4380,11 +4394,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4394,27 +4408,29 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4450,17 +4466,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4472,31 +4490,29 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4505,10 +4521,10 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4517,16 +4533,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4564,19 +4580,17 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4591,26 +4605,28 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4628,18 +4644,20 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4688,50 +4706,50 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4743,17 +4761,15 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4790,31 +4806,31 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4823,7 +4839,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4834,43 +4850,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4894,52 +4908,52 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4950,7 +4964,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4967,25 +4981,25 @@
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5010,13 +5024,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5034,7 +5048,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5052,10 +5066,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5066,7 +5080,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5074,7 +5088,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5089,32 +5103,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5126,13 +5140,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5150,7 +5164,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5168,10 +5182,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5182,7 +5196,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5205,30 +5219,32 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5264,7 +5280,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5282,10 +5298,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5296,7 +5312,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5304,7 +5320,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5319,15 +5335,17 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5340,7 +5358,7 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5376,7 +5394,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5394,10 +5412,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5408,7 +5426,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5431,17 +5449,15 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5490,7 +5506,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5508,10 +5524,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5522,7 +5538,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5533,7 +5549,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5545,16 +5561,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5604,13 +5620,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5619,13 +5635,13 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5636,7 +5652,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5659,16 +5675,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5718,7 +5734,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5733,13 +5749,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5754,7 +5770,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5773,15 +5789,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5845,13 +5863,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5862,11 +5880,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5885,13 +5903,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5942,7 +5960,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5957,38 +5975,38 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5997,20 +6015,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6058,13 +6072,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6073,13 +6087,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6090,15 +6104,15 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6107,24 +6121,26 @@
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6148,13 +6164,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6172,10 +6188,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6187,24 +6203,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6218,7 +6234,7 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>88</v>
@@ -6230,13 +6246,13 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6262,13 +6278,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6286,7 +6302,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6301,24 +6317,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6332,29 +6348,27 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6378,11 +6392,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6400,13 +6416,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6415,24 +6431,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6440,31 +6456,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6488,13 +6508,11 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6512,31 +6530,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6544,18 +6562,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6567,17 +6585,15 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6614,31 +6630,31 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6647,7 +6663,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6658,11 +6674,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6678,23 +6694,21 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6730,19 +6744,19 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6754,16 +6768,16 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6774,7 +6788,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6785,7 +6799,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6794,19 +6808,23 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6854,28 +6872,28 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6886,18 +6904,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6909,17 +6927,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6956,31 +6972,31 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -6989,7 +7005,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7000,18 +7016,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7020,29 +7036,27 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
@@ -7072,40 +7086,40 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7116,7 +7130,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7139,24 +7153,26 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>79</v>
@@ -7198,7 +7214,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7216,10 +7232,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7230,7 +7246,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7253,24 +7269,24 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7312,7 +7328,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7330,10 +7346,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7344,7 +7360,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7367,24 +7383,24 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7426,7 +7442,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7444,10 +7460,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7458,7 +7474,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7481,19 +7497,17 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7542,7 +7556,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7560,10 +7574,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7574,7 +7588,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7597,19 +7611,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7658,7 +7672,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7676,10 +7690,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7690,7 +7704,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7713,66 +7727,68 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="O49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Q49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7787,16 +7803,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7804,7 +7820,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7821,31 +7837,27 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
@@ -7866,13 +7878,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7890,7 +7902,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7905,62 +7917,66 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>162</v>
+        <v>376</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7980,11 +7996,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8002,7 +8020,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8017,35 +8035,35 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -8057,16 +8075,16 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8092,13 +8110,11 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8116,53 +8132,53 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8171,18 +8187,18 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8206,13 +8222,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8230,16 +8246,16 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>99</v>
@@ -8248,21 +8264,21 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8270,13 +8286,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8285,16 +8301,18 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8342,10 +8360,10 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>87</v>
@@ -8357,38 +8375,38 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8397,13 +8415,13 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8454,10 +8472,10 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>87</v>
@@ -8469,28 +8487,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8500,7 +8518,7 @@
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8509,13 +8527,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8566,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8581,28 +8599,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8621,13 +8639,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8654,13 +8672,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8678,7 +8696,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8693,28 +8711,28 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8733,13 +8751,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8766,13 +8784,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8790,7 +8808,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8805,28 +8823,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8845,17 +8863,15 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8904,7 +8920,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8919,32 +8935,32 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
@@ -8959,16 +8975,16 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>162</v>
+        <v>485</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8994,13 +9010,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9018,7 +9034,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9033,35 +9049,35 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9073,16 +9089,16 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>502</v>
+        <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9108,13 +9124,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9132,13 +9148,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -9147,28 +9163,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9178,7 +9194,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9187,15 +9203,17 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>162</v>
+        <v>507</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9220,13 +9238,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9244,7 +9262,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9259,16 +9277,16 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9276,7 +9294,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9299,13 +9317,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9332,13 +9350,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9356,7 +9374,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9377,18 +9395,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9402,7 +9420,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9411,17 +9429,15 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>162</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M64" t="s" s="2">
         <v>522</v>
       </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9446,13 +9462,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9470,7 +9486,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9485,24 +9501,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9510,13 +9526,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9525,16 +9541,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>530</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9560,13 +9576,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9584,7 +9600,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9599,16 +9615,16 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9616,7 +9632,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9636,18 +9652,20 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="K66" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9696,7 +9714,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9711,28 +9729,28 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9742,7 +9760,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9751,17 +9769,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9810,7 +9826,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9825,13 +9841,13 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9840,13 +9856,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9856,25 +9872,25 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9924,7 +9940,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9939,28 +9955,28 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9970,7 +9986,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9979,20 +9995,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>162</v>
+        <v>559</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>565</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10016,13 +10030,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10040,7 +10054,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10058,25 +10072,25 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10092,19 +10106,23 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>571</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>48</v>
+        <v>567</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10128,13 +10146,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10152,7 +10170,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10167,24 +10185,24 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AK70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>575</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10195,7 +10213,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
@@ -10204,16 +10222,16 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>576</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10264,13 +10282,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10279,10 +10297,10 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>579</v>
@@ -10291,12 +10309,12 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10307,19 +10325,19 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>581</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>582</v>
@@ -10327,9 +10345,7 @@
       <c r="L72" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>584</v>
-      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10378,13 +10394,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10393,23 +10409,137 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN72">
+  <autoFilter ref="A1:AN73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10419,7 +10549,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}nurs-gen:if other is the code, then orderDetail  SHALL be SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.code.memberOf('http://snomed.info/sct')}</t>
   </si>
   <si>
     <t>Request</t>
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -584,17 +584,14 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
     <t>executed</t>
@@ -4197,9 +4194,7 @@
       <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4283,17 +4278,17 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4305,13 +4300,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4394,11 +4389,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4420,16 +4415,16 @@
         <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4478,7 +4473,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4510,7 +4505,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4533,16 +4528,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4580,7 +4575,7 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
@@ -4590,7 +4585,7 @@
         <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4605,27 +4600,27 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4647,16 +4642,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4706,7 +4701,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4721,24 +4716,24 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4850,11 +4845,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4876,13 +4871,13 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4964,7 +4959,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4990,16 +4985,16 @@
         <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5024,31 +5019,31 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5069,7 +5064,7 @@
         <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5106,16 +5101,16 @@
         <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5143,28 +5138,28 @@
         <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5182,10 +5177,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5196,7 +5191,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5222,65 +5217,65 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5298,10 +5293,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5312,7 +5307,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5338,13 +5333,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5358,43 +5353,43 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5412,10 +5407,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5426,7 +5421,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5449,13 +5444,13 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5506,7 +5501,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5524,10 +5519,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5538,7 +5533,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5561,16 +5556,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5620,7 +5615,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5638,10 +5633,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5652,7 +5647,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5675,16 +5670,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5734,7 +5729,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5749,13 +5744,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5766,7 +5761,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5792,13 +5787,13 @@
         <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5848,7 +5843,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5863,13 +5858,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5880,11 +5875,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5903,13 +5898,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5960,7 +5955,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5975,13 +5970,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5992,11 +5987,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6015,13 +6010,13 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6072,7 +6067,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6087,13 +6082,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6104,11 +6099,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6127,19 +6122,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6188,7 +6183,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6203,13 +6198,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6220,7 +6215,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6246,13 +6241,13 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6278,14 +6273,14 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6302,7 +6297,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6317,24 +6312,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6360,13 +6355,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6392,14 +6387,14 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6416,7 +6411,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -6431,16 +6426,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6448,7 +6443,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6474,16 +6469,16 @@
         <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6512,7 +6507,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6530,7 +6525,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6548,13 +6543,13 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6562,7 +6557,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6674,11 +6669,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6700,13 +6695,13 @@
         <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6788,7 +6783,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6811,19 +6806,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6872,7 +6867,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6890,10 +6885,10 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6904,7 +6899,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7016,11 +7011,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7042,13 +7037,13 @@
         <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7130,7 +7125,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7156,65 +7151,65 @@
         <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7232,10 +7227,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7246,7 +7241,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7272,13 +7267,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7328,7 +7323,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7346,10 +7341,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7360,7 +7355,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7386,63 +7381,63 @@
         <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7460,10 +7455,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7474,7 +7469,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7500,14 +7495,14 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7556,7 +7551,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7574,10 +7569,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7588,7 +7583,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7611,19 +7606,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7672,7 +7667,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7690,10 +7685,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7704,7 +7699,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7730,16 +7725,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7788,7 +7783,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7806,10 +7801,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7820,7 +7815,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7846,10 +7841,10 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7857,35 +7852,35 @@
         <v>79</v>
       </c>
       <c r="P50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7902,7 +7897,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7917,16 +7912,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7934,7 +7929,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7957,26 +7952,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8020,7 +8015,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8035,13 +8030,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8052,11 +8047,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8078,13 +8073,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8110,11 +8105,11 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8132,7 +8127,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8147,38 +8142,38 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AN52" t="s" s="2">
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>420</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8190,13 +8185,13 @@
         <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8225,11 +8220,11 @@
         <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8246,7 +8241,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8255,7 +8250,7 @@
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>99</v>
@@ -8264,21 +8259,21 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8301,17 +8296,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8360,7 +8355,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8378,10 +8373,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8392,7 +8387,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8415,13 +8410,13 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8472,7 +8467,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>87</v>
@@ -8487,28 +8482,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8527,13 +8522,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8584,7 +8579,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8599,28 +8594,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>454</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8639,13 +8634,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8696,7 +8691,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8711,24 +8706,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8751,13 +8746,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8787,11 +8782,11 @@
         <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8808,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8829,22 +8824,22 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8863,13 +8858,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8920,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8935,28 +8930,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8975,16 +8970,16 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9034,7 +9029,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9049,28 +9044,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9092,13 +9087,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9127,11 +9122,11 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9148,7 +9143,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9163,16 +9158,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9180,11 +9175,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9203,16 +9198,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9262,7 +9257,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9277,16 +9272,16 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AM62" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9294,7 +9289,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9320,10 +9315,10 @@
         <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9353,11 +9348,11 @@
         <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9374,7 +9369,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9395,10 +9390,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9406,7 +9401,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9429,13 +9424,13 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9486,7 +9481,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9507,10 +9502,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9518,7 +9513,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9544,13 +9539,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9579,11 +9574,11 @@
         <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9600,7 +9595,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9615,16 +9610,16 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9632,7 +9627,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9655,16 +9650,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9714,7 +9709,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9729,16 +9724,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AM66" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9741,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9769,13 +9764,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9826,7 +9821,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9841,13 +9836,13 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9858,11 +9853,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9881,16 +9876,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9940,7 +9935,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9955,13 +9950,13 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9972,7 +9967,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9995,16 +9990,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10054,7 +10049,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10072,10 +10067,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10086,11 +10081,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10112,16 +10107,16 @@
         <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10149,11 +10144,11 @@
         <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10170,7 +10165,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10188,21 +10183,21 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>574</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10225,13 +10220,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10282,7 +10277,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10297,24 +10292,24 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>580</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10340,10 +10335,10 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10394,7 +10389,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10412,10 +10407,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10426,7 +10421,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10449,16 +10444,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10508,7 +10503,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10523,13 +10518,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}nurs-gen:if other is the code, then orderDetail  SHALL be SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.code.memberOf('http://snomed.info/sct')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}</t>
   </si>
   <si>
     <t>Request</t>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}gen:if other is the code, then orderDetail SHALL SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'http://snomed.info/sct').empty() = false}</t>
   </si>
   <si>
     <t>Request</t>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -5873,7 +5873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>277</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -8157,7 +8157,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>420</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="590">
   <si>
     <t>Property</t>
   </si>
@@ -970,10 +970,7 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -6275,11 +6272,9 @@
       <c r="W36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6312,24 +6307,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6355,13 +6350,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6390,11 +6385,11 @@
         <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6411,7 +6406,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -6426,16 +6421,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6443,7 +6438,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6469,16 +6464,16 @@
         <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6507,7 +6502,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6525,7 +6520,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6543,13 +6538,13 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6557,7 +6552,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6669,7 +6664,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6783,7 +6778,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6806,19 +6801,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6867,7 +6862,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6885,10 +6880,10 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6899,7 +6894,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7011,7 +7006,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7125,7 +7120,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7151,65 +7146,65 @@
         <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7227,10 +7222,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7241,7 +7236,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7267,13 +7262,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7323,7 +7318,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7341,10 +7336,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7355,7 +7350,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7381,63 +7376,63 @@
         <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7455,10 +7450,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7469,7 +7464,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7495,14 +7490,14 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7551,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7569,10 +7564,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7583,7 +7578,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7606,19 +7601,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7667,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7685,10 +7680,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7699,7 +7694,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7725,16 +7720,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7783,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7801,10 +7796,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7815,7 +7810,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7841,10 +7836,10 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7852,7 +7847,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
@@ -7876,11 +7871,11 @@
         <v>218</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7897,7 +7892,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7912,16 +7907,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7929,7 +7924,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7952,26 +7947,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8015,7 +8010,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8030,13 +8025,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8047,11 +8042,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8073,13 +8068,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8109,7 +8104,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8127,7 +8122,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8142,28 +8137,28 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8185,13 +8180,13 @@
         <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8220,11 +8215,11 @@
         <v>166</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8241,7 +8236,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8250,7 +8245,7 @@
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>99</v>
@@ -8259,21 +8254,21 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8296,17 +8291,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8355,7 +8350,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8373,10 +8368,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8387,7 +8382,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8410,13 +8405,13 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8467,7 +8462,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>87</v>
@@ -8482,28 +8477,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8522,13 +8517,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8579,7 +8574,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8594,28 +8589,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8634,13 +8629,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8691,7 +8686,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8706,24 +8701,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8746,13 +8741,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8782,11 +8777,11 @@
         <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8803,7 +8798,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8824,22 +8819,22 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8858,13 +8853,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8915,7 +8910,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8930,28 +8925,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>481</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8970,16 +8965,16 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9029,7 +9024,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9044,28 +9039,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9087,13 +9082,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9122,11 +9117,11 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9143,7 +9138,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9158,16 +9153,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9175,11 +9170,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9198,16 +9193,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9257,7 +9252,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9272,16 +9267,16 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AM62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9289,7 +9284,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9315,10 +9310,10 @@
         <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9348,11 +9343,11 @@
         <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9369,7 +9364,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9390,10 +9385,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9401,7 +9396,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9424,13 +9419,13 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9481,7 +9476,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9502,10 +9497,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9513,7 +9508,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9539,13 +9534,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9574,11 +9569,11 @@
         <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9595,7 +9590,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9610,16 +9605,16 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9627,7 +9622,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9650,16 +9645,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9709,7 +9704,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9724,16 +9719,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="AM66" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9741,7 +9736,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9764,13 +9759,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9821,7 +9816,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9836,13 +9831,13 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9853,11 +9848,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9876,16 +9871,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9935,7 +9930,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9950,13 +9945,13 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9967,7 +9962,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9990,16 +9985,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10049,7 +10044,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10067,10 +10062,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10081,11 +10076,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10107,16 +10102,16 @@
         <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10144,11 +10139,11 @@
         <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10165,7 +10160,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10183,21 +10178,21 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10220,13 +10215,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10277,7 +10272,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10292,24 +10287,24 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>579</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10335,10 +10330,10 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10389,7 +10384,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10407,10 +10402,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10421,7 +10416,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10444,16 +10439,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10503,7 +10498,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10518,13 +10513,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}gen:if other is the code, then orderDetail SHALL SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'http://snomed.info/sct').empty() = false}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}bladder:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'bladder-care'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-type-of-bladder-care').empty() = false}disgestive:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'digestive-system-care'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-digestive-system-care').empty() = false}wound:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'wound-care'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-wound-care').empty() = false}compression:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'compression-therapy'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code-compressiontherapy').empty() = false}diabetic:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'diabetic-patient-services'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-diabetic-patient-services').empty() = false}non:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'non-reimbursed-services'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code-non-reimbursable').empty() = false}other:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code-other').empty() = false}</t>
   </si>
   <si>
     <t>Request</t>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}bladder:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'bladder-care'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-type-of-bladder-care').empty() = false}disgestive:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'digestive-system-care'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-digestive-system-care').empty() = false}wound:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'wound-care'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-wound-care').empty() = false}compression:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'compression-therapy'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code-compressiontherapy').empty() = false}diabetic:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'diabetic-patient-services'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-diabetic-patient-services').empty() = false}non:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'non-reimbursed-services'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code-non-reimbursable').empty() = false}other:code and orderDetail SHALL be related {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code-other').empty() = false}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}gen:if other is the code, then orderDetail SHALL SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'http://snomed.info/sct').empty() = false}</t>
   </si>
   <si>
     <t>Request</t>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -605,6 +605,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>BeLastestEndDate</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2175,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4384,32 +4397,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>191</v>
@@ -4417,12 +4432,8 @@
       <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4479,7 +4490,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>139</v>
@@ -4491,7 +4502,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4502,11 +4513,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4516,27 +4527,29 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4572,17 +4585,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4594,31 +4609,29 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4627,10 +4640,10 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4639,16 +4652,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4686,19 +4699,17 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4713,26 +4724,28 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4750,18 +4763,20 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4810,50 +4825,50 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4865,17 +4880,15 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4912,31 +4925,31 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -4956,43 +4969,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5016,52 +5027,52 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5072,7 +5083,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5089,25 +5100,25 @@
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5132,13 +5143,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5156,7 +5167,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5174,10 +5185,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5188,7 +5199,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5196,7 +5207,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
@@ -5211,32 +5222,32 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5248,13 +5259,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5272,7 +5283,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5290,10 +5301,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5304,7 +5315,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5327,30 +5338,32 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5386,7 +5399,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5404,10 +5417,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5418,7 +5431,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5426,7 +5439,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5441,15 +5454,17 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5462,7 +5477,7 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5498,7 +5513,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5516,10 +5531,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5530,7 +5545,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5553,17 +5568,15 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5612,7 +5625,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5630,10 +5643,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5644,7 +5657,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5655,7 +5668,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5667,16 +5680,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5726,13 +5739,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5741,13 +5754,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5758,7 +5771,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5781,16 +5794,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5840,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5855,13 +5868,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5870,13 +5883,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5886,7 +5899,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5895,15 +5908,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5952,7 +5967,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5967,13 +5982,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5982,13 +5997,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5998,7 +6013,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6007,13 +6022,13 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6064,7 +6079,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6079,13 +6094,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6094,23 +6109,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6119,20 +6134,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6180,13 +6191,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6195,13 +6206,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6212,15 +6223,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6229,24 +6240,26 @@
         <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6270,11 +6283,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6292,10 +6307,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6307,24 +6322,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6338,7 +6353,7 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>88</v>
@@ -6350,13 +6365,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6382,13 +6397,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6406,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -6421,24 +6434,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6452,29 +6465,27 @@
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6498,11 +6509,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6520,13 +6533,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6535,24 +6548,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6560,31 +6573,35 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6608,13 +6625,11 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6632,31 +6647,31 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>152</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6664,18 +6679,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6687,17 +6702,15 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6734,31 +6747,31 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
@@ -6778,11 +6791,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6798,23 +6811,21 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6850,19 +6861,19 @@
         <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6874,16 +6885,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6894,7 +6905,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6905,7 +6916,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6914,19 +6925,23 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6974,28 +6989,28 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7006,18 +7021,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7029,17 +7044,15 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7076,31 +7089,31 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7120,18 +7133,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7140,29 +7153,27 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>79</v>
@@ -7192,40 +7203,40 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>348</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7236,7 +7247,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7259,24 +7270,26 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7318,7 +7331,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7336,10 +7349,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7350,7 +7363,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7373,24 +7386,24 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7432,7 +7445,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7450,10 +7463,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7464,7 +7477,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7487,24 +7500,24 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>79</v>
@@ -7546,7 +7559,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7564,10 +7577,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7578,7 +7591,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7601,19 +7614,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7662,7 +7673,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7680,10 +7691,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7694,7 +7705,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7717,19 +7728,19 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>378</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7778,7 +7789,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7796,10 +7807,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7810,7 +7821,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7833,66 +7844,68 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Q50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7907,16 +7920,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7924,7 +7937,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7941,31 +7954,27 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>374</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q51" t="s" s="2">
         <v>79</v>
@@ -7986,13 +7995,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8010,7 +8019,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8025,62 +8034,66 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8100,11 +8113,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y52" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8122,7 +8137,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8137,35 +8152,35 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -8180,13 +8195,13 @@
         <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8212,13 +8227,11 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8236,53 +8249,53 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8291,18 +8304,18 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>429</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8326,13 +8339,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8350,16 +8363,16 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>99</v>
@@ -8368,21 +8381,21 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8390,13 +8403,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8405,16 +8418,18 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8462,10 +8477,10 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>87</v>
@@ -8477,38 +8492,38 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8517,13 +8532,13 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8574,10 +8589,10 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
@@ -8589,28 +8604,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8620,7 +8635,7 @@
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8629,13 +8644,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8686,7 +8701,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8701,28 +8716,28 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8741,13 +8756,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8774,13 +8789,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8798,7 +8813,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8813,32 +8828,32 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
@@ -8853,13 +8868,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8886,13 +8901,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8910,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8925,28 +8940,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8965,17 +8980,15 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9024,7 +9037,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9039,32 +9052,32 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
@@ -9079,16 +9092,16 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>163</v>
+        <v>487</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9114,13 +9127,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9138,7 +9151,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9153,35 +9166,35 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -9193,16 +9206,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>505</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9228,13 +9241,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9252,13 +9265,13 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9267,28 +9280,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9298,7 +9311,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9307,15 +9320,17 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9340,13 +9355,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9364,7 +9379,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9379,16 +9394,16 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9396,7 +9411,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9419,13 +9434,13 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>519</v>
+        <v>163</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9452,13 +9467,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9476,7 +9491,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9500,13 +9515,13 @@
         <v>521</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>522</v>
       </c>
@@ -9516,13 +9531,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9531,17 +9546,15 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>523</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9566,13 +9579,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9605,24 +9618,24 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9630,13 +9643,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9645,16 +9658,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9680,13 +9693,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9704,7 +9717,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9719,16 +9732,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9736,7 +9749,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9756,18 +9769,20 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9816,7 +9831,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9831,28 +9846,28 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9862,7 +9877,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9871,17 +9886,15 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9930,7 +9943,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9945,13 +9958,13 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9960,13 +9973,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9976,25 +9989,25 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10044,7 +10057,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10059,13 +10072,13 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10074,13 +10087,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10090,7 +10103,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10099,20 +10112,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>561</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10136,13 +10147,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10160,7 +10171,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10178,25 +10189,25 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10212,19 +10223,23 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>574</v>
+        <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>48</v>
+        <v>569</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10248,13 +10263,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10272,7 +10287,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10287,24 +10302,24 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>578</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10315,7 +10330,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10324,16 +10339,16 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>578</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>580</v>
+        <v>48</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10384,13 +10399,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10399,22 +10414,22 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>583</v>
       </c>
@@ -10427,29 +10442,27 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>587</v>
-      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10504,7 +10517,7 @@
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10513,23 +10526,137 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="K74" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN73">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10539,7 +10666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -607,17 +607,17 @@
     <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>BeLastestEndDate</t>
-  </si>
-  <si>
-    <t>Request must be performed before</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -9194,7 +9194,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -9308,7 +9308,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="598">
   <si>
     <t>Property</t>
   </si>
@@ -605,6 +605,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>Request must be executed before</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>performer</t>
@@ -2188,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4409,7 +4422,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -4511,32 +4524,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>195</v>
@@ -4544,12 +4559,8 @@
       <c r="L21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4597,7 +4608,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4606,7 +4617,7 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>139</v>
@@ -4618,7 +4629,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4629,11 +4640,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4643,27 +4654,29 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4699,17 +4712,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4721,31 +4736,29 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4754,10 +4767,10 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4766,16 +4779,16 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4813,19 +4826,17 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4840,26 +4851,28 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4877,18 +4890,20 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4937,50 +4952,50 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4992,17 +5007,15 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5039,31 +5052,31 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -5083,43 +5096,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5143,52 +5154,52 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5199,7 +5210,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5216,25 +5227,25 @@
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5259,13 +5270,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5283,7 +5294,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5301,10 +5312,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5315,7 +5326,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5323,7 +5334,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5338,32 +5349,32 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5375,13 +5386,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5399,7 +5410,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5417,10 +5428,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5431,7 +5442,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5454,30 +5465,32 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5513,7 +5526,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5531,10 +5544,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5545,7 +5558,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5553,7 +5566,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5568,15 +5581,17 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5589,7 +5604,7 @@
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5625,7 +5640,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5643,10 +5658,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5657,7 +5672,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5680,17 +5695,15 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5739,7 +5752,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5757,10 +5770,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5771,7 +5784,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5782,7 +5795,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5794,16 +5807,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5853,13 +5866,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5868,13 +5881,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5885,7 +5898,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5908,16 +5921,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5967,7 +5980,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5982,13 +5995,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5997,13 +6010,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6013,7 +6026,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6022,15 +6035,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6079,7 +6094,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6094,13 +6109,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6109,13 +6124,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6125,7 +6140,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6134,13 +6149,13 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6191,7 +6206,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6206,13 +6221,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6221,23 +6236,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6246,20 +6261,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6307,13 +6318,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6322,13 +6333,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6339,15 +6350,15 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
@@ -6356,24 +6367,26 @@
         <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6397,11 +6410,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6419,10 +6434,10 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
@@ -6434,24 +6449,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6465,7 +6480,7 @@
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>88</v>
@@ -6477,13 +6492,13 @@
         <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6509,13 +6524,11 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6533,7 +6546,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>87</v>
@@ -6548,24 +6561,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6579,29 +6592,27 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6625,11 +6636,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6647,13 +6660,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6662,24 +6675,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6687,31 +6700,35 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6735,13 +6752,11 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6759,31 +6774,31 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6791,18 +6806,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6814,17 +6829,15 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6861,31 +6874,31 @@
         <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
@@ -6905,11 +6918,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6925,23 +6938,21 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6977,19 +6988,19 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7001,16 +7012,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7021,7 +7032,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7032,7 +7043,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7041,19 +7052,23 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7101,28 +7116,28 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7133,18 +7148,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7156,17 +7171,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7203,31 +7216,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7247,18 +7260,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7267,29 +7280,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7319,40 +7330,40 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7363,7 +7374,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7386,24 +7397,26 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7445,7 +7458,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7463,10 +7476,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7477,7 +7490,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7500,24 +7513,24 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>79</v>
@@ -7559,7 +7572,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7577,10 +7590,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7591,7 +7604,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7614,24 +7627,24 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7673,7 +7686,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7691,10 +7704,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7705,7 +7718,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7728,19 +7741,17 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>378</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7789,7 +7800,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7807,10 +7818,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7821,7 +7832,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7844,19 +7855,19 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7905,7 +7916,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7923,10 +7934,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7937,7 +7948,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7960,66 +7971,68 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Q51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8034,16 +8047,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8051,7 +8064,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8068,31 +8081,27 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>378</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>79</v>
@@ -8113,13 +8122,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8137,7 +8146,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8152,62 +8161,66 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8227,11 +8240,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8249,7 +8264,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8264,35 +8279,35 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8307,13 +8322,13 @@
         <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8339,13 +8354,11 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8363,53 +8376,53 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8418,18 +8431,18 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>433</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8453,13 +8466,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8477,16 +8490,16 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
@@ -8495,21 +8508,21 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8517,13 +8530,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8532,16 +8545,18 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8589,10 +8604,10 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
@@ -8604,38 +8619,38 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8644,13 +8659,13 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8701,10 +8716,10 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
@@ -8716,28 +8731,28 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8747,7 +8762,7 @@
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8756,13 +8771,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8813,7 +8828,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8828,28 +8843,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8868,13 +8883,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8901,13 +8916,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8925,7 +8940,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8940,32 +8955,32 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
@@ -8980,13 +8995,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9013,13 +9028,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9037,7 +9052,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9052,28 +9067,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9092,17 +9107,15 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9151,7 +9164,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9166,35 +9179,35 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -9206,16 +9219,16 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>163</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9241,13 +9254,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9265,7 +9278,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9280,28 +9293,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9320,16 +9333,16 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>509</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9355,13 +9368,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9379,13 +9392,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9394,38 +9407,38 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9434,15 +9447,17 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>513</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9467,13 +9482,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9491,7 +9506,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9506,16 +9521,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9523,7 +9538,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9546,13 +9561,13 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>523</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9579,13 +9594,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9618,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9627,13 +9642,13 @@
         <v>525</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>526</v>
       </c>
@@ -9643,13 +9658,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9658,17 +9673,15 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>529</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9693,13 +9706,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9732,24 +9745,24 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9757,13 +9770,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9772,16 +9785,16 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>537</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9807,13 +9820,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9831,7 +9844,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9846,16 +9859,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9863,7 +9876,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9883,18 +9896,20 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9943,7 +9958,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9958,28 +9973,28 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9989,7 +10004,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9998,17 +10013,15 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10057,7 +10070,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10072,13 +10085,13 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10087,13 +10100,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10103,25 +10116,25 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10171,7 +10184,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10186,13 +10199,13 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10201,13 +10214,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10217,7 +10230,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10226,20 +10239,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>163</v>
+        <v>565</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10263,13 +10274,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10287,7 +10298,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10305,25 +10316,25 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10339,19 +10350,23 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>578</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>48</v>
+        <v>573</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10375,13 +10390,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10399,7 +10414,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10414,24 +10429,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>582</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10442,7 +10457,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -10451,16 +10466,16 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>582</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>584</v>
+        <v>48</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10511,13 +10526,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10526,22 +10541,22 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>587</v>
       </c>
@@ -10554,29 +10569,27 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10631,7 +10644,7 @@
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10640,23 +10653,137 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="K75" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AL75" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10666,7 +10793,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -6576,7 +6576,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>320</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="602">
   <si>
     <t>Property</t>
   </si>
@@ -631,6 +631,19 @@
   </si>
   <si>
     <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2201,7 +2214,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4638,32 +4651,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>199</v>
@@ -4671,12 +4686,8 @@
       <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4724,7 +4735,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4744,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>139</v>
@@ -4745,7 +4756,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4756,11 +4767,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4770,27 +4781,29 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4826,17 +4839,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4848,31 +4863,29 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4881,10 +4894,10 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4893,16 +4906,16 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4940,19 +4953,17 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4967,26 +4978,28 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5004,18 +5017,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5064,50 +5079,50 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5119,17 +5134,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5166,31 +5179,31 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
@@ -5210,43 +5223,41 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5270,52 +5281,52 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5326,7 +5337,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5343,25 +5354,25 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5386,13 +5397,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5410,7 +5421,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5428,10 +5439,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5442,7 +5453,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5450,7 +5461,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5465,32 +5476,32 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5502,13 +5513,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5526,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5544,10 +5555,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5558,7 +5569,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5581,30 +5592,32 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5640,7 +5653,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5658,10 +5671,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5672,7 +5685,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5680,7 +5693,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5695,15 +5708,17 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5716,7 +5731,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5767,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5770,10 +5785,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5784,7 +5799,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5807,17 +5822,15 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5879,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5884,10 +5897,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5898,7 +5911,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5909,7 +5922,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5921,16 +5934,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5980,13 +5993,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5995,13 +6008,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6012,7 +6025,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6035,16 +6048,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6094,7 +6107,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6109,13 +6122,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6124,13 +6137,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6140,7 +6153,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6149,15 +6162,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6206,7 +6221,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6221,13 +6236,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6236,13 +6251,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6252,7 +6267,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6261,13 +6276,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6318,7 +6333,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6333,13 +6348,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6348,23 +6363,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6373,20 +6388,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6434,13 +6445,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6449,13 +6460,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6466,15 +6477,15 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
@@ -6483,24 +6494,26 @@
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6524,11 +6537,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6546,10 +6561,10 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>87</v>
@@ -6561,24 +6576,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6604,13 +6619,13 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6636,13 +6651,11 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6660,7 +6673,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>87</v>
@@ -6675,24 +6688,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6709,26 +6722,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6752,11 +6763,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6774,13 +6787,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6789,24 +6802,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6814,31 +6827,35 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6862,13 +6879,11 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6886,31 +6901,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6918,18 +6933,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6941,17 +6956,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6988,31 +7001,31 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -7032,11 +7045,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7052,23 +7065,21 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7104,19 +7115,19 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7128,16 +7139,16 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7148,7 +7159,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7159,7 +7170,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7168,19 +7179,23 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7228,28 +7243,28 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7260,18 +7275,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7283,17 +7298,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7330,31 +7343,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7374,18 +7387,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7394,29 +7407,27 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7446,40 +7457,40 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7490,7 +7501,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,24 +7524,26 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>79</v>
@@ -7572,7 +7585,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7590,10 +7603,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7604,7 +7617,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7627,24 +7640,24 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7686,7 +7699,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7704,10 +7717,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7718,7 +7731,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7741,24 +7754,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7800,7 +7813,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7818,10 +7831,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7832,7 +7845,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7855,19 +7868,17 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>382</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7916,7 +7927,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7934,10 +7945,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7948,7 +7959,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7971,19 +7982,19 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8032,7 +8043,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8050,10 +8061,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8064,7 +8075,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8087,66 +8098,68 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8161,16 +8174,16 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8178,7 +8191,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8195,31 +8208,27 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>382</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>79</v>
@@ -8240,13 +8249,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8264,7 +8273,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8279,62 +8288,66 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8354,11 +8367,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8376,7 +8391,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8391,35 +8406,35 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8434,13 +8449,13 @@
         <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8466,13 +8481,11 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8490,53 +8503,53 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8545,18 +8558,18 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8580,13 +8593,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8604,16 +8617,16 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8622,21 +8635,21 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8644,13 +8657,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8659,16 +8672,18 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8716,10 +8731,10 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
@@ -8731,38 +8746,38 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8771,13 +8786,13 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8828,10 +8843,10 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -8843,28 +8858,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8874,7 +8889,7 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8883,13 +8898,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8940,7 +8955,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8955,28 +8970,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8995,13 +9010,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9028,13 +9043,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9052,7 +9067,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9067,32 +9082,32 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
@@ -9107,13 +9122,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9140,13 +9155,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9164,7 +9179,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9179,28 +9194,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9219,17 +9234,15 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9278,7 +9291,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9293,35 +9306,35 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -9333,16 +9346,16 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9368,13 +9381,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9392,7 +9405,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9407,28 +9420,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9447,16 +9460,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9482,13 +9495,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9506,13 +9519,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9521,38 +9534,38 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9561,15 +9574,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9594,13 +9609,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9618,7 +9633,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9633,16 +9648,16 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9650,7 +9665,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9673,13 +9688,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>527</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9706,13 +9721,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9730,7 +9745,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9754,13 +9769,13 @@
         <v>529</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>530</v>
       </c>
@@ -9770,13 +9785,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9785,17 +9800,15 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9820,13 +9833,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9859,24 +9872,24 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9884,13 +9897,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9899,16 +9912,16 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>541</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9934,13 +9947,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9958,7 +9971,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9973,16 +9986,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9990,7 +10003,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10010,18 +10023,20 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10070,7 +10085,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10085,28 +10100,28 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10116,7 +10131,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10125,17 +10140,15 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10184,7 +10197,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10199,13 +10212,13 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10214,13 +10227,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10230,25 +10243,25 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10298,7 +10311,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10313,13 +10326,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10328,13 +10341,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10344,7 +10357,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10353,20 +10366,18 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>163</v>
+        <v>569</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10390,13 +10401,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10414,7 +10425,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10432,25 +10443,25 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10466,19 +10477,23 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>582</v>
+        <v>163</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>48</v>
+        <v>577</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10502,13 +10517,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10526,7 +10541,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10541,24 +10556,24 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>586</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10569,7 +10584,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>88</v>
@@ -10578,16 +10593,16 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>586</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>588</v>
+        <v>48</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10638,13 +10653,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10653,22 +10668,22 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>591</v>
       </c>
@@ -10681,29 +10696,27 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>595</v>
-      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10758,7 +10771,7 @@
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10767,23 +10780,137 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AK75" t="s" s="2">
+      <c r="K76" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AL76" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN75">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10793,7 +10920,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -1006,7 +1006,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
@@ -1686,7 +1686,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1720,7 +1720,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -646,6 +646,16 @@
     <t>Type of proposal</t>
   </si>
   <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1009,7 +1019,10 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -2214,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4765,45 +4778,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4860,7 +4871,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>139</v>
@@ -4872,7 +4883,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4883,11 +4894,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4897,27 +4908,29 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4953,17 +4966,19 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4975,31 +4990,29 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5008,10 +5021,10 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5020,16 +5033,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5067,19 +5080,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5094,26 +5105,28 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5131,18 +5144,20 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5191,50 +5206,50 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -5246,17 +5261,15 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5293,31 +5306,31 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5341,26 +5354,26 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>226</v>
@@ -5369,11 +5382,9 @@
         <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5397,52 +5408,52 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5453,7 +5464,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5470,25 +5481,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5513,13 +5524,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5537,7 +5548,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5555,10 +5566,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5569,7 +5580,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5577,7 +5588,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5592,32 +5603,32 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5629,13 +5640,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5653,7 +5664,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5671,10 +5682,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5685,7 +5696,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5708,30 +5719,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5767,7 +5780,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5785,10 +5798,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5799,7 +5812,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5807,7 +5820,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5822,15 +5835,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5843,7 +5858,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5879,7 +5894,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5897,10 +5912,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5911,7 +5926,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5934,17 +5949,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5993,7 +6006,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6011,10 +6024,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6025,7 +6038,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6036,7 +6049,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6048,16 +6061,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6113,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6122,13 +6135,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6139,7 +6152,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6162,16 +6175,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6221,7 +6234,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6236,13 +6249,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6251,13 +6264,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6267,7 +6280,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6276,15 +6289,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>291</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6333,7 +6348,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6348,13 +6363,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6363,13 +6378,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6379,7 +6394,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6388,13 +6403,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6445,7 +6460,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6460,13 +6475,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6475,23 +6490,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6500,20 +6515,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6561,13 +6572,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6576,13 +6587,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6593,15 +6604,15 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
@@ -6610,24 +6621,26 @@
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6651,11 +6664,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6673,10 +6688,10 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -6688,24 +6703,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6731,13 +6746,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6763,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6787,7 +6802,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6802,24 +6817,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6836,26 +6851,24 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6879,11 +6892,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6901,13 +6916,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6916,24 +6931,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6941,31 +6956,35 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6989,13 +7008,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7013,31 +7030,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>152</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7045,18 +7062,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7068,17 +7085,15 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7115,31 +7130,31 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7159,11 +7174,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7179,23 +7194,21 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7231,19 +7244,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7255,16 +7268,16 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>152</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7288,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7286,7 +7299,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7295,19 +7308,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7355,28 +7372,28 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7387,18 +7404,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7410,17 +7427,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7457,31 +7472,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7501,18 +7516,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7521,29 +7536,27 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>356</v>
+        <v>227</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>79</v>
@@ -7573,40 +7586,40 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7617,7 +7630,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7640,24 +7653,26 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7699,7 +7714,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7717,10 +7732,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7731,7 +7746,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7754,24 +7769,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7813,7 +7828,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7831,10 +7846,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7845,7 +7860,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7868,24 +7883,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7927,7 +7942,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7945,10 +7960,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7959,7 +7974,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7982,19 +7997,17 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>386</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8043,7 +8056,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8061,10 +8074,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8075,7 +8088,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8098,19 +8111,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8159,7 +8172,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8177,10 +8190,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8191,7 +8204,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8214,66 +8227,68 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8288,16 +8303,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8305,7 +8320,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8322,31 +8337,27 @@
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>386</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
@@ -8367,13 +8378,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8391,7 +8402,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8406,62 +8417,66 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8481,11 +8496,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8503,7 +8520,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8518,35 +8535,35 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8561,13 +8578,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8593,13 +8610,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8617,53 +8632,53 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8672,18 +8687,18 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>441</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8707,13 +8722,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8731,16 +8746,16 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8749,21 +8764,21 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8771,13 +8786,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8786,16 +8801,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8843,10 +8860,10 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -8858,38 +8875,38 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8898,13 +8915,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8955,10 +8972,10 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8970,28 +8987,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9001,7 +9018,7 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9010,13 +9027,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9067,7 +9084,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9082,28 +9099,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9122,13 +9139,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9155,13 +9172,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9179,7 +9196,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9194,32 +9211,32 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
@@ -9234,13 +9251,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9267,13 +9284,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9291,7 +9308,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9306,28 +9323,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9346,17 +9363,15 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9405,7 +9420,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9420,35 +9435,35 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9460,16 +9475,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>499</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9495,13 +9510,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9519,7 +9534,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9534,28 +9549,28 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9574,16 +9589,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>517</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9609,13 +9624,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9633,13 +9648,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9648,38 +9663,38 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9688,15 +9703,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>521</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9721,13 +9738,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9745,7 +9762,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9760,16 +9777,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9777,7 +9794,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9800,13 +9817,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>531</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9833,13 +9850,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9857,7 +9874,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9881,13 +9898,13 @@
         <v>533</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>534</v>
       </c>
@@ -9897,13 +9914,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9912,17 +9929,15 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>535</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>537</v>
-      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9947,13 +9962,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9986,24 +10001,24 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10011,13 +10026,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10026,16 +10041,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>545</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10061,13 +10076,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10085,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10100,16 +10115,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10117,7 +10132,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10137,18 +10152,20 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10197,7 +10214,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10212,28 +10229,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10243,7 +10260,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10252,17 +10269,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10311,7 +10326,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10326,13 +10341,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10341,13 +10356,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10357,25 +10372,25 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10425,7 +10440,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10440,13 +10455,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10455,13 +10470,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10471,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10480,20 +10495,18 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>163</v>
+        <v>573</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10517,13 +10530,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10541,7 +10554,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10559,25 +10572,25 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10593,19 +10606,23 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>586</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>48</v>
+        <v>581</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10629,13 +10646,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10653,7 +10670,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10668,24 +10685,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10696,7 +10713,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10705,16 +10722,16 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>590</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>592</v>
+        <v>48</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10765,13 +10782,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10780,22 +10797,22 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>595</v>
       </c>
@@ -10808,29 +10825,27 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>599</v>
-      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10885,7 +10900,7 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10894,23 +10909,137 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="K77" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10920,7 +11049,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="609">
   <si>
     <t>Property</t>
   </si>
@@ -654,6 +654,16 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
+</t>
+  </si>
+  <si>
+    <t>BeExtends</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2227,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4892,45 +4902,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4978,7 +4986,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4987,7 +4995,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4999,7 +5007,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5010,11 +5018,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5024,27 +5032,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5080,17 +5090,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5102,31 +5114,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5135,10 +5145,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5147,16 +5157,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5194,19 +5204,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5221,26 +5229,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5258,18 +5268,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5318,50 +5330,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5373,17 +5385,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5420,31 +5430,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5468,26 +5478,26 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>229</v>
@@ -5496,11 +5506,9 @@
         <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5524,52 +5532,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5580,7 +5588,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5597,25 +5605,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5640,13 +5648,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5664,7 +5672,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5682,10 +5690,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5696,7 +5704,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5704,7 +5712,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5719,32 +5727,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5756,13 +5764,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5780,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5798,10 +5806,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5812,7 +5820,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5835,30 +5843,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5894,7 +5904,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5912,10 +5922,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5926,7 +5936,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5934,7 +5944,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5949,15 +5959,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5970,7 +5982,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6006,7 +6018,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6024,10 +6036,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6038,7 +6050,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6061,17 +6073,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6120,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6138,10 +6148,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6152,7 +6162,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6163,7 +6173,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6175,16 +6185,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6240,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6249,13 +6259,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6266,7 +6276,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6289,16 +6299,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6348,7 +6358,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6363,13 +6373,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6378,13 +6388,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6394,7 +6404,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6403,15 +6413,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6460,7 +6472,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6475,13 +6487,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6490,13 +6502,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6506,7 +6518,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6515,13 +6527,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6572,7 +6584,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6587,13 +6599,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6602,23 +6614,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6627,20 +6639,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6688,13 +6696,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6703,13 +6711,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6720,15 +6728,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6737,24 +6745,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6778,13 +6788,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6802,10 +6812,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6817,24 +6827,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6860,13 +6870,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6892,13 +6902,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6916,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6931,24 +6941,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6965,26 +6975,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7008,11 +7016,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7030,13 +7040,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7045,24 +7055,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7070,31 +7080,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7118,13 +7132,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7142,31 +7154,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7174,18 +7186,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7197,17 +7209,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7244,31 +7254,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7288,11 +7298,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7308,23 +7318,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7360,19 +7368,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7384,16 +7392,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7404,7 +7412,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7415,7 +7423,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7424,19 +7432,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7484,28 +7496,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7516,18 +7528,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7539,17 +7551,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7586,31 +7596,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7630,18 +7640,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7650,29 +7660,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7702,40 +7710,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7746,7 +7754,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7769,24 +7777,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7828,7 +7838,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7846,10 +7856,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7870,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7883,24 +7893,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7942,7 +7952,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7960,10 +7970,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7974,7 +7984,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7997,24 +8007,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8056,7 +8066,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8074,10 +8084,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8088,7 +8098,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8111,19 +8121,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8172,7 +8180,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8190,10 +8198,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8204,7 +8212,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8227,19 +8235,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8288,7 +8296,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8306,10 +8314,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8320,7 +8328,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8343,22 +8351,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8378,13 +8388,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8417,16 +8427,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8434,7 +8444,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8451,31 +8461,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8496,13 +8502,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8520,7 +8526,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8535,62 +8541,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8610,11 +8620,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8632,7 +8644,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8647,35 +8659,35 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8690,13 +8702,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8722,13 +8734,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8746,53 +8756,53 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8801,18 +8811,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>445</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8836,13 +8846,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8860,16 +8870,16 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -8878,21 +8888,21 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8900,13 +8910,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8915,16 +8925,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8972,10 +8984,10 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8987,38 +8999,38 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9027,13 +9039,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9084,10 +9096,10 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
@@ -9099,28 +9111,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9130,7 +9142,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9139,13 +9151,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9196,7 +9208,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9211,28 +9223,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9251,13 +9263,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9284,13 +9296,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9308,7 +9320,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9323,32 +9335,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9363,13 +9375,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9396,13 +9408,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9420,7 +9432,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9435,28 +9447,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9475,17 +9487,15 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9534,7 +9544,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9549,35 +9559,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9589,16 +9599,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9624,13 +9634,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9648,7 +9658,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9663,28 +9673,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9703,16 +9713,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>521</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9738,13 +9748,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9762,13 +9772,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9777,38 +9787,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9817,15 +9827,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9850,13 +9862,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9874,7 +9886,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9889,16 +9901,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9906,7 +9918,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9929,13 +9941,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9962,13 +9974,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9986,7 +9998,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10007,18 +10019,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10026,13 +10038,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10041,17 +10053,15 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>538</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>541</v>
-      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10076,13 +10086,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10100,7 +10110,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10115,24 +10125,24 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10140,13 +10150,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10155,16 +10165,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>549</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10190,13 +10200,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10214,7 +10224,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10229,16 +10239,16 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10246,7 +10256,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10266,18 +10276,20 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10326,7 +10338,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10341,28 +10353,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10372,7 +10384,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10381,17 +10393,15 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10440,7 +10450,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10455,13 +10465,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10470,13 +10480,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10486,25 +10496,25 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10554,7 +10564,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10569,13 +10579,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10584,13 +10594,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10600,7 +10610,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10609,20 +10619,18 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>163</v>
+        <v>576</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10646,13 +10654,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10670,7 +10678,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10688,25 +10696,25 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10722,19 +10730,23 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>590</v>
+        <v>163</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>48</v>
+        <v>584</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10758,13 +10770,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10782,7 +10794,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10797,24 +10809,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>443</v>
+        <v>580</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10825,7 +10837,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10834,16 +10846,16 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>593</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>596</v>
+        <v>48</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10894,13 +10906,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10909,24 +10921,24 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>595</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10937,29 +10949,27 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="K77" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>603</v>
-      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11008,13 +11018,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11023,23 +11033,137 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="L78" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AL78" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11049,7 +11173,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -654,16 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>extends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
-</t>
-  </si>
-  <si>
-    <t>BeExtends</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2237,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4902,43 +4892,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4986,7 +4978,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4995,7 +4987,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5007,7 +4999,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5018,11 +5010,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5032,29 +5024,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5090,19 +5080,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5114,29 +5102,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5145,10 +5135,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5157,16 +5147,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5204,17 +5194,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5229,28 +5221,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5268,20 +5258,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5330,50 +5318,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5385,15 +5373,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5430,31 +5420,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5478,26 +5468,26 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>229</v>
@@ -5506,9 +5496,11 @@
         <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5532,52 +5524,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5588,7 +5580,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5605,25 +5597,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5648,13 +5640,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5672,7 +5664,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5690,10 +5682,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5704,7 +5696,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5712,7 +5704,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5727,32 +5719,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5764,13 +5756,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5788,7 +5780,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5806,10 +5798,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5820,7 +5812,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5843,32 +5835,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5904,7 +5894,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5922,10 +5912,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5936,7 +5926,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5944,7 +5934,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5959,17 +5949,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5982,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6018,7 +6006,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6036,10 +6024,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6050,7 +6038,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6073,15 +6061,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6130,7 +6120,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6148,10 +6138,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6162,7 +6152,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6173,7 +6163,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6185,16 +6175,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6250,7 +6240,7 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6259,13 +6249,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6276,7 +6266,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6299,16 +6289,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6358,7 +6348,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6373,13 +6363,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6388,13 +6378,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6404,7 +6394,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6413,17 +6403,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6472,7 +6460,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6487,13 +6475,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6502,13 +6490,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6518,7 +6506,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6527,13 +6515,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6584,7 +6572,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6599,13 +6587,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6614,23 +6602,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6639,16 +6627,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6696,13 +6688,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6711,13 +6703,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6728,15 +6720,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6745,26 +6737,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6788,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6812,10 +6802,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6827,24 +6817,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6870,13 +6860,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6902,13 +6892,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6926,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6941,24 +6931,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6975,24 +6965,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7016,13 +7008,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7040,13 +7030,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7055,24 +7045,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7080,35 +7070,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7132,11 +7118,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7154,31 +7142,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7186,18 +7174,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7209,15 +7197,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7254,31 +7244,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7298,11 +7288,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7318,21 +7308,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7368,19 +7360,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7392,16 +7384,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7412,7 +7404,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7423,7 +7415,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7432,23 +7424,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7496,28 +7484,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7528,18 +7516,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7551,15 +7539,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7596,31 +7586,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7640,18 +7630,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7660,27 +7650,29 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7710,40 +7702,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7754,7 +7746,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7777,26 +7769,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7838,7 +7828,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7856,10 +7846,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7870,7 +7860,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7893,24 +7883,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7952,7 +7942,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7970,10 +7960,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7984,7 +7974,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8007,24 +7997,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8066,7 +8056,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8084,10 +8074,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8098,7 +8088,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8121,17 +8111,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8180,7 +8172,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8198,10 +8190,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8212,7 +8204,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8235,19 +8227,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8296,7 +8288,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8314,10 +8306,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8328,7 +8320,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8351,24 +8343,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8388,13 +8378,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8427,16 +8417,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8444,7 +8434,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8461,27 +8451,31 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8502,13 +8496,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8526,7 +8520,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8541,110 +8535,104 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>393</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" t="s" s="2">
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8659,35 +8647,35 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8702,13 +8690,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8734,11 +8722,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8756,53 +8746,53 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>437</v>
-      </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8811,18 +8801,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8846,40 +8836,40 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -8888,21 +8878,21 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8910,13 +8900,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8925,18 +8915,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8984,10 +8972,10 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8999,38 +8987,38 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9039,13 +9027,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9096,10 +9084,10 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
@@ -9111,28 +9099,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9142,7 +9130,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9151,13 +9139,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9208,7 +9196,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9223,28 +9211,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9263,13 +9251,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9296,13 +9284,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9320,7 +9308,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9335,32 +9323,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9375,13 +9363,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9408,31 +9396,31 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9447,28 +9435,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9487,15 +9475,17 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9544,7 +9534,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9559,35 +9549,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9599,16 +9589,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>502</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9634,13 +9624,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9658,7 +9648,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9673,28 +9663,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9713,16 +9703,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>521</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9748,13 +9738,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9772,13 +9762,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9787,38 +9777,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9827,17 +9817,15 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9862,13 +9850,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9886,7 +9874,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9901,16 +9889,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9918,7 +9906,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9941,13 +9929,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>535</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9974,31 +9962,31 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10019,18 +10007,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10038,13 +10026,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10053,15 +10041,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10086,13 +10076,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10110,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10125,24 +10115,24 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10150,13 +10140,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10165,16 +10155,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>549</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10200,13 +10190,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10224,7 +10214,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10239,16 +10229,16 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10256,7 +10246,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10276,20 +10266,18 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10338,7 +10326,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10353,28 +10341,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10384,7 +10372,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10393,15 +10381,17 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10450,7 +10440,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10465,13 +10455,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10480,13 +10470,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10496,25 +10486,25 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10564,7 +10554,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10579,13 +10569,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10594,13 +10584,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10610,7 +10600,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10619,18 +10609,20 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>576</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10654,13 +10646,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10678,7 +10670,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10696,25 +10688,25 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10730,23 +10722,19 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>163</v>
+        <v>590</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>584</v>
+        <v>48</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10770,31 +10758,31 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10809,24 +10797,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>580</v>
+        <v>443</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10837,7 +10825,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10846,16 +10834,16 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>593</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>48</v>
+        <v>596</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10906,13 +10894,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10921,24 +10909,24 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10949,27 +10937,29 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>600</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11018,13 +11008,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11033,137 +11023,23 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>446</v>
+        <v>130</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN78">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11173,7 +11049,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription-nursing</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing</t>
   </si>
   <si>
     <t>Version</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}gen:if other is the code, then orderDetail SHALL SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'http://snomed.info/sct').empty() = false}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}gen:if other is the code, then orderDetail SHALL SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'http://snomed.info/sct').empty() = false}</t>
   </si>
   <si>
     <t>Request</t>
@@ -555,13 +555,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
     <t>informParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
@@ -571,7 +571,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
@@ -597,7 +597,7 @@
     <t>executed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
 </t>
   </si>
   <si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -623,7 +623,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>proposalType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
 </t>
   </si>
   <si>
@@ -649,7 +649,7 @@
     <t>task</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
 </t>
   </si>
   <si>
@@ -804,7 +804,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/NamingSystem/uhmep</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1016,7 +1016,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1082,7 +1082,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-referral-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-referral-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1346,7 +1346,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-type-of-nursing</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-type-of-nursing</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1415,7 +1415,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1568,7 +1568,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1637,7 +1637,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -1699,7 +1699,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1733,7 +1733,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2260,7 +2260,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="608">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -654,6 +654,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2227,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4892,45 +4899,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4987,7 +4992,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -4999,7 +5004,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5010,11 +5015,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5024,27 +5029,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5080,17 +5087,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5102,31 +5111,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5135,10 +5142,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5147,16 +5154,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5194,19 +5201,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5221,26 +5226,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5258,18 +5265,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5318,50 +5327,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5373,17 +5382,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5420,31 +5427,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5464,43 +5471,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5524,52 +5529,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5580,7 +5585,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5597,25 +5602,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5640,13 +5645,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5664,7 +5669,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5682,10 +5687,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5696,7 +5701,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5704,7 +5709,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5719,32 +5724,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5756,13 +5761,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5780,7 +5785,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5798,10 +5803,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5812,7 +5817,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5835,30 +5840,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5894,7 +5901,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5912,10 +5919,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5926,7 +5933,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5934,7 +5941,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5949,15 +5956,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5970,7 +5979,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6006,7 +6015,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6024,10 +6033,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6038,7 +6047,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6061,17 +6070,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6120,7 +6127,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6138,10 +6145,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6152,7 +6159,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6163,7 +6170,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6175,16 +6182,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6234,13 +6241,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6249,13 +6256,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6266,7 +6273,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6289,16 +6296,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6348,7 +6355,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6363,13 +6370,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6378,13 +6385,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6394,7 +6401,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6403,15 +6410,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6460,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6475,13 +6484,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6490,13 +6499,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6506,7 +6515,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6515,13 +6524,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6572,7 +6581,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6587,13 +6596,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6602,23 +6611,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6627,20 +6636,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6688,13 +6693,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6703,13 +6708,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6720,15 +6725,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6737,24 +6742,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6778,13 +6785,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6802,10 +6809,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6817,24 +6824,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6860,13 +6867,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6892,13 +6899,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6916,7 +6923,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6931,24 +6938,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6965,26 +6972,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7008,11 +7013,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7030,13 +7037,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7045,24 +7052,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7070,31 +7077,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7118,13 +7129,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7142,31 +7151,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7174,18 +7183,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7197,17 +7206,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7244,31 +7251,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7288,11 +7295,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7308,23 +7315,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7360,19 +7365,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7384,16 +7389,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7404,7 +7409,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7415,7 +7420,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7424,19 +7429,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7484,28 +7493,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7516,18 +7525,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7539,17 +7548,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7586,31 +7593,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7630,18 +7637,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7650,29 +7657,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7702,40 +7707,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7746,7 +7751,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7769,24 +7774,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7828,7 +7835,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7846,10 +7853,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7867,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7883,24 +7890,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7942,7 +7949,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7960,10 +7967,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7974,7 +7981,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7997,24 +8004,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8056,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8074,10 +8081,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8088,7 +8095,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8111,19 +8118,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8172,7 +8177,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8190,10 +8195,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8204,7 +8209,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8227,19 +8232,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8288,7 +8293,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8306,10 +8311,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8320,7 +8325,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8343,22 +8348,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8378,13 +8385,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8402,7 +8409,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8417,16 +8424,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8434,7 +8441,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8451,31 +8458,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8496,13 +8499,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8520,7 +8523,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8535,62 +8538,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8610,11 +8617,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8632,7 +8641,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8647,35 +8656,35 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8690,13 +8699,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8722,13 +8731,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8746,53 +8753,53 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8801,18 +8808,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>445</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8836,13 +8843,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8860,16 +8867,16 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -8878,21 +8885,21 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8900,13 +8907,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8915,16 +8922,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8972,10 +8981,10 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8987,38 +8996,38 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9027,13 +9036,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9084,10 +9093,10 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
@@ -9099,28 +9108,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9130,7 +9139,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9139,13 +9148,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9196,7 +9205,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9211,28 +9220,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9251,13 +9260,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9284,13 +9293,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9308,7 +9317,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9323,32 +9332,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9363,13 +9372,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9396,13 +9405,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9420,7 +9429,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9435,28 +9444,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9475,17 +9484,15 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9534,7 +9541,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9549,35 +9556,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9589,16 +9596,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>501</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9624,13 +9631,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9648,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9663,28 +9670,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9703,16 +9710,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>521</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9738,13 +9745,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9762,13 +9769,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9777,38 +9784,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9817,15 +9824,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>523</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9850,13 +9859,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9874,7 +9883,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9889,16 +9898,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9906,7 +9915,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9929,13 +9938,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9962,13 +9971,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9986,7 +9995,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10007,18 +10016,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10026,13 +10035,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10041,17 +10050,15 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>537</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10076,13 +10083,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10100,7 +10107,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10115,24 +10122,24 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10140,13 +10147,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10155,16 +10162,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>549</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10190,13 +10197,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10214,7 +10221,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10229,16 +10236,16 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10246,7 +10253,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10266,18 +10273,20 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10326,7 +10335,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10341,28 +10350,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10372,7 +10381,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10381,17 +10390,15 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10440,7 +10447,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10455,13 +10462,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10470,13 +10477,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10486,25 +10493,25 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10554,7 +10561,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10569,13 +10576,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10584,13 +10591,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10600,7 +10607,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10609,20 +10616,18 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>163</v>
+        <v>575</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10646,13 +10651,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10670,7 +10675,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10688,25 +10693,25 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10722,19 +10727,23 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>590</v>
+        <v>163</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>48</v>
+        <v>583</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10758,13 +10767,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10782,7 +10791,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10797,24 +10806,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>443</v>
+        <v>579</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10825,7 +10834,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10834,16 +10843,16 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>592</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>596</v>
+        <v>48</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10894,13 +10903,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10909,24 +10918,24 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10937,29 +10946,27 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>600</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11008,13 +11015,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11023,23 +11030,137 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="M78" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AL78" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11049,7 +11170,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -654,13 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2234,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4899,43 +4892,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4983,7 +4978,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4992,7 +4987,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5004,7 +4999,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5015,11 +5010,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5029,29 +5024,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5087,19 +5080,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5111,29 +5102,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5142,10 +5135,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5154,16 +5147,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5201,17 +5194,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5226,28 +5221,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5265,20 +5258,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5327,50 +5318,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5382,15 +5373,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5427,31 +5420,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5471,41 +5464,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5529,52 +5524,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5585,7 +5580,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5602,25 +5597,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5645,13 +5640,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5669,7 +5664,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5687,10 +5682,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5701,7 +5696,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5709,7 +5704,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5724,32 +5719,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5761,13 +5756,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5785,7 +5780,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5803,10 +5798,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5817,7 +5812,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5840,32 +5835,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5901,7 +5894,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5919,10 +5912,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5933,7 +5926,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5941,7 +5934,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5956,17 +5949,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6015,7 +6006,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6033,10 +6024,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6047,7 +6038,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6070,15 +6061,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6127,7 +6120,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6145,10 +6138,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6159,7 +6152,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6170,7 +6163,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6182,16 +6175,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6241,13 +6234,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6256,13 +6249,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6273,7 +6266,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6296,16 +6289,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6355,7 +6348,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6370,13 +6363,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6385,13 +6378,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6401,7 +6394,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6410,17 +6403,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6469,7 +6460,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6484,13 +6475,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6499,13 +6490,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6515,7 +6506,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6524,13 +6515,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6581,7 +6572,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6596,13 +6587,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6611,23 +6602,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6636,16 +6627,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6693,13 +6688,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6708,13 +6703,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6725,15 +6720,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6742,26 +6737,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6785,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6809,10 +6802,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6824,24 +6817,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6867,13 +6860,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6899,13 +6892,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6923,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6938,24 +6931,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6972,24 +6965,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7013,13 +7008,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7037,13 +7030,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7052,24 +7045,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7077,35 +7070,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7129,11 +7118,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7151,31 +7142,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7183,18 +7174,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7206,15 +7197,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7251,31 +7244,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7295,11 +7288,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7315,21 +7308,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7365,19 +7360,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7389,16 +7384,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7409,7 +7404,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7420,7 +7415,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7429,23 +7424,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7493,28 +7484,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7525,18 +7516,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7548,15 +7539,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7593,31 +7586,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7637,18 +7630,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7657,27 +7650,29 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7707,40 +7702,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7751,7 +7746,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7774,26 +7769,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7835,7 +7828,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7853,10 +7846,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7867,7 +7860,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7890,24 +7883,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7949,7 +7942,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7967,10 +7960,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7981,7 +7974,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8004,24 +7997,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8063,7 +8056,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8081,10 +8074,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8095,7 +8088,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8118,17 +8111,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8177,7 +8172,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8195,10 +8190,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8209,7 +8204,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8232,19 +8227,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8293,7 +8288,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8311,10 +8306,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8325,7 +8320,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8348,24 +8343,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8385,13 +8378,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8409,7 +8402,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8424,16 +8417,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8441,7 +8434,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8458,27 +8451,31 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8499,13 +8496,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8523,7 +8520,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8538,66 +8535,62 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8617,13 +8610,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8641,7 +8632,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8656,35 +8647,35 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8699,13 +8690,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8731,11 +8722,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8753,53 +8746,53 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM57" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>436</v>
-      </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8808,18 +8801,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8843,13 +8836,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8867,16 +8860,16 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -8885,21 +8878,21 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8907,13 +8900,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8922,18 +8915,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>450</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8981,10 +8972,10 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8996,38 +8987,38 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9036,13 +9027,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9093,10 +9084,10 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
@@ -9108,28 +9099,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9139,7 +9130,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9148,13 +9139,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9205,7 +9196,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9220,28 +9211,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9260,13 +9251,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9293,13 +9284,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9317,7 +9308,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9332,32 +9323,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9372,13 +9363,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9405,13 +9396,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9429,7 +9420,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9444,28 +9435,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9484,15 +9475,17 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9541,7 +9534,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9556,35 +9549,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9596,16 +9589,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>501</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9631,13 +9624,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9655,7 +9648,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9670,28 +9663,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9710,16 +9703,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>521</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9745,13 +9738,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9769,13 +9762,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9784,38 +9777,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9824,17 +9817,15 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>523</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9859,13 +9850,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9883,7 +9874,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9898,16 +9889,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9915,7 +9906,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9938,13 +9929,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>535</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9971,31 +9962,31 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10016,18 +10007,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10035,13 +10026,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10050,15 +10041,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>537</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10083,13 +10076,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10107,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10122,24 +10115,24 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10147,13 +10140,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10162,16 +10155,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>549</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10197,13 +10190,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10221,7 +10214,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10236,16 +10229,16 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10253,7 +10246,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10273,20 +10266,18 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10335,7 +10326,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10350,28 +10341,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10381,7 +10372,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10390,15 +10381,17 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10447,7 +10440,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10462,13 +10455,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10477,13 +10470,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10493,25 +10486,25 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10561,7 +10554,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10576,13 +10569,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10591,13 +10584,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10607,7 +10600,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10616,18 +10609,20 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>575</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10651,13 +10646,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10675,7 +10670,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10693,25 +10688,25 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10727,23 +10722,19 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>163</v>
+        <v>590</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>583</v>
+        <v>48</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10767,13 +10758,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10791,7 +10782,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10806,24 +10797,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>579</v>
+        <v>443</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10834,7 +10825,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10843,16 +10834,16 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>48</v>
+        <v>596</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10903,13 +10894,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10918,24 +10909,24 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10946,27 +10937,29 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>600</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11015,13 +11008,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11030,137 +11023,23 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN78">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11170,7 +11049,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="614">
   <si>
     <t>Property</t>
   </si>
@@ -1847,6 +1847,31 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2227,7 +2252,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10700,7 +10725,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>589</v>
       </c>
@@ -10713,10 +10738,10 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10725,13 +10750,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>590</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>591</v>
+        <v>150</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10782,70 +10807,72 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>589</v>
+        <v>151</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>593</v>
+        <v>152</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>596</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10882,40 +10909,40 @@
         <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>595</v>
+        <v>155</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>598</v>
+        <v>152</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -10926,9 +10953,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10937,7 +10966,7 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -10949,17 +10978,15 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11008,7 +11035,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>599</v>
+        <v>155</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11020,26 +11047,596 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="L81" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11049,7 +11646,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="615">
   <si>
     <t>Property</t>
   </si>
@@ -558,14 +558,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -4020,7 +4023,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4038,7 +4041,7 @@
         <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4110,7 +4113,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4124,7 +4127,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4146,13 +4149,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4238,7 +4241,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4260,13 +4263,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4352,7 +4355,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4374,13 +4377,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4466,7 +4469,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4488,13 +4491,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4580,7 +4583,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4602,13 +4605,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4694,7 +4697,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4716,13 +4719,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4808,7 +4811,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4830,13 +4833,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4919,11 +4922,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4945,16 +4948,16 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5003,7 +5006,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5035,7 +5038,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5058,16 +5061,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5105,7 +5108,7 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -5115,7 +5118,7 @@
         <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5130,27 +5133,27 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5172,16 +5175,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5231,7 +5234,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5246,24 +5249,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5375,11 +5378,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5401,13 +5404,13 @@
         <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5489,7 +5492,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5515,16 +5518,16 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5549,13 +5552,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5573,7 +5576,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5594,7 +5597,7 @@
         <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5605,7 +5608,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5631,16 +5634,16 @@
         <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5668,10 +5671,10 @@
         <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5689,7 +5692,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5707,10 +5710,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5721,7 +5724,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5747,29 +5750,29 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5805,7 +5808,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5823,10 +5826,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5837,7 +5840,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5863,13 +5866,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5883,7 +5886,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5919,7 +5922,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5937,10 +5940,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5951,7 +5954,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5974,13 +5977,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6031,7 +6034,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6049,10 +6052,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6063,7 +6066,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6086,16 +6089,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6145,7 +6148,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6163,10 +6166,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6200,16 +6203,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6259,7 +6262,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6274,13 +6277,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6291,7 +6294,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6317,13 +6320,13 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6373,7 +6376,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6388,13 +6391,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6405,11 +6408,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6428,13 +6431,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6485,7 +6488,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6500,13 +6503,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6517,11 +6520,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6540,13 +6543,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6597,7 +6600,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6612,13 +6615,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6629,11 +6632,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6652,19 +6655,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6713,7 +6716,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6728,13 +6731,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6745,7 +6748,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6771,13 +6774,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6803,13 +6806,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6827,7 +6830,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6842,24 +6845,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6885,13 +6888,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6917,13 +6920,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6941,7 +6944,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6956,16 +6959,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6973,7 +6976,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6999,16 +7002,16 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7037,7 +7040,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7055,7 +7058,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7073,13 +7076,13 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7087,7 +7090,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7199,11 +7202,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7225,13 +7228,13 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7313,7 +7316,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7336,19 +7339,19 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7397,7 +7400,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7415,10 +7418,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7429,7 +7432,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7541,11 +7544,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7567,13 +7570,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7655,7 +7658,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7681,23 +7684,23 @@
         <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7739,7 +7742,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7757,10 +7760,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7771,7 +7774,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7797,13 +7800,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7853,7 +7856,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7871,10 +7874,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7885,7 +7888,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7911,21 +7914,21 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7967,7 +7970,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7985,10 +7988,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7999,7 +8002,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8025,14 +8028,14 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8081,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8099,10 +8102,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8113,7 +8116,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8136,19 +8139,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8197,7 +8200,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8215,10 +8218,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8229,7 +8232,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8255,16 +8258,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8313,7 +8316,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8331,10 +8334,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8345,7 +8348,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8371,10 +8374,10 @@
         <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8382,7 +8385,7 @@
         <v>79</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
@@ -8403,13 +8406,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8430,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8442,16 +8445,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8459,7 +8462,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8482,70 +8485,70 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8560,13 +8563,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8577,11 +8580,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8603,13 +8606,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8635,11 +8638,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8657,7 +8660,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8672,28 +8675,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8715,13 +8718,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8750,10 +8753,10 @@
         <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8771,7 +8774,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8780,7 +8783,7 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8789,21 +8792,21 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8826,17 +8829,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8885,7 +8888,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8903,10 +8906,10 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8917,7 +8920,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8940,13 +8943,13 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8997,7 +9000,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>87</v>
@@ -9012,28 +9015,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9052,13 +9055,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9109,7 +9112,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9124,28 +9127,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9164,13 +9167,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9221,7 +9224,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9236,24 +9239,24 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9276,13 +9279,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9312,10 +9315,10 @@
         <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9333,7 +9336,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9354,22 +9357,22 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9388,13 +9391,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9445,7 +9448,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9460,28 +9463,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9500,16 +9503,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9559,7 +9562,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9574,28 +9577,28 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9617,13 +9620,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9652,10 +9655,10 @@
         <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9673,7 +9676,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9688,16 +9691,16 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9705,11 +9708,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9728,16 +9731,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9787,7 +9790,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9802,16 +9805,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9819,7 +9822,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9845,10 +9848,10 @@
         <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9878,10 +9881,10 @@
         <v>166</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9899,7 +9902,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9920,10 +9923,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9931,7 +9934,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9954,13 +9957,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10011,7 +10014,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10032,10 +10035,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10043,7 +10046,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10069,13 +10072,13 @@
         <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10104,10 +10107,10 @@
         <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10125,7 +10128,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10140,16 +10143,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10157,7 +10160,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10180,16 +10183,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10239,7 +10242,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10254,16 +10257,16 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10271,7 +10274,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10294,13 +10297,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10351,7 +10354,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10366,13 +10369,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10383,11 +10386,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10406,16 +10409,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10465,7 +10468,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10480,13 +10483,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10497,7 +10500,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10520,16 +10523,16 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10579,7 +10582,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10597,10 +10600,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10611,11 +10614,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10637,16 +10640,16 @@
         <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10674,10 +10677,10 @@
         <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10695,7 +10698,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10713,21 +10716,21 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10839,11 +10842,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10865,13 +10868,13 @@
         <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10953,10 +10956,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>79</v>
@@ -10978,13 +10981,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11067,7 +11070,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11090,19 +11093,19 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11151,7 +11154,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11169,10 +11172,10 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11183,7 +11186,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11209,16 +11212,16 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11267,7 +11270,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11285,10 +11288,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11299,7 +11302,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11322,13 +11325,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11379,7 +11382,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11394,24 +11397,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11437,10 +11440,10 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11491,7 +11494,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11509,10 +11512,10 @@
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11523,7 +11526,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11546,16 +11549,16 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11605,7 +11608,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11620,13 +11623,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -613,7 +613,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -657,6 +657,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2255,7 +2262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4920,45 +4927,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5006,7 +5011,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5015,7 +5020,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5027,7 +5032,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5038,11 +5043,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5052,27 +5057,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5108,17 +5115,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5130,31 +5139,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5163,10 +5170,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5175,16 +5182,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5222,19 +5229,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5249,26 +5254,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5286,18 +5293,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5346,50 +5355,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5401,17 +5410,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5448,31 +5455,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5492,43 +5499,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5552,52 +5557,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5608,7 +5613,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5625,25 +5630,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5668,13 +5673,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5692,7 +5697,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5710,10 +5715,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5724,7 +5729,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5732,7 +5737,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5747,32 +5752,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5784,13 +5789,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5808,7 +5813,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5826,10 +5831,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5840,7 +5845,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5863,30 +5868,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5922,7 +5929,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5940,10 +5947,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5954,7 +5961,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5962,7 +5969,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5977,15 +5984,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5998,7 +6007,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6034,7 +6043,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6052,10 +6061,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6066,7 +6075,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6089,17 +6098,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6148,7 +6155,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6166,10 +6173,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6180,7 +6187,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6191,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6203,16 +6210,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6262,13 +6269,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6277,13 +6284,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6294,7 +6301,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6317,16 +6324,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6376,7 +6383,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6391,13 +6398,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6406,13 +6413,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6422,7 +6429,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6431,15 +6438,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6497,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6503,13 +6512,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6518,13 +6527,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6534,7 +6543,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6543,13 +6552,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6600,7 +6609,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6615,13 +6624,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6630,23 +6639,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6655,20 +6664,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6716,13 +6721,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6731,13 +6736,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6748,15 +6753,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6765,24 +6770,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6806,13 +6813,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6830,10 +6837,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6845,24 +6852,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6888,13 +6895,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6920,13 +6927,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6944,7 +6951,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6959,24 +6966,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6993,26 +7000,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7036,11 +7041,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7058,13 +7065,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7073,24 +7080,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7098,31 +7105,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7146,13 +7157,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7170,31 +7179,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7202,18 +7211,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7225,17 +7234,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7272,31 +7279,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7316,11 +7323,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7336,23 +7343,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7388,19 +7393,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7412,16 +7417,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7432,7 +7437,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7443,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7452,19 +7457,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7512,28 +7521,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7544,18 +7553,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7567,17 +7576,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7614,31 +7621,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7658,18 +7665,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7678,29 +7685,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7730,40 +7735,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7774,7 +7779,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7797,24 +7802,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7856,7 +7863,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7874,10 +7881,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7888,7 +7895,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7911,24 +7918,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7970,7 +7977,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7988,10 +7995,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8002,7 +8009,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8025,24 +8032,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8084,7 +8091,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8102,10 +8109,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8116,7 +8123,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8139,19 +8146,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8200,7 +8205,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8218,10 +8223,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8232,7 +8237,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8255,19 +8260,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8316,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8334,10 +8339,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8348,7 +8353,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8371,22 +8376,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8406,13 +8413,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8430,7 +8437,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8445,16 +8452,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8462,7 +8469,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8479,31 +8486,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8524,13 +8527,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8548,7 +8551,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8563,62 +8566,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8638,11 +8645,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8660,7 +8669,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8675,35 +8684,35 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8718,13 +8727,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8750,13 +8759,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8774,53 +8781,53 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8829,18 +8836,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>446</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8864,13 +8871,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8888,16 +8895,16 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -8906,21 +8913,21 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8928,13 +8935,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8943,16 +8950,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9000,10 +9009,10 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -9015,38 +9024,38 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9055,13 +9064,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9112,10 +9121,10 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
@@ -9127,28 +9136,28 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9158,7 +9167,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9167,13 +9176,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9224,7 +9233,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9239,28 +9248,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9279,13 +9288,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9312,13 +9321,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9336,7 +9345,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9351,32 +9360,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9391,13 +9400,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9424,13 +9433,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9448,7 +9457,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9463,28 +9472,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9503,17 +9512,15 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9562,7 +9569,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9577,35 +9584,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9617,16 +9624,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9652,13 +9659,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9676,7 +9683,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9691,28 +9698,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9731,16 +9738,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>522</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9766,13 +9773,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9790,13 +9797,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9805,38 +9812,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9845,15 +9852,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9878,13 +9887,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9902,7 +9911,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9917,16 +9926,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9934,7 +9943,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9957,13 +9966,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>536</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9990,13 +9999,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10014,7 +10023,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10035,18 +10044,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10054,13 +10063,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10069,17 +10078,15 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>538</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10104,13 +10111,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10128,7 +10135,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10143,24 +10150,24 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10168,13 +10175,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10183,16 +10190,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>550</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10218,13 +10225,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10242,7 +10249,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10257,16 +10264,16 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10274,7 +10281,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10294,18 +10301,20 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10354,7 +10363,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10369,28 +10378,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10400,7 +10409,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10409,17 +10418,15 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10468,7 +10475,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10483,13 +10490,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10498,13 +10505,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10514,25 +10521,25 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10582,7 +10589,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10597,13 +10604,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10612,13 +10619,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10628,7 +10635,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10637,20 +10644,18 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>163</v>
+        <v>576</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10674,13 +10679,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10698,7 +10703,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10716,53 +10721,57 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>589</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>149</v>
+        <v>584</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10786,13 +10795,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10810,50 +10819,50 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>151</v>
+        <v>582</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>152</v>
+        <v>590</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -10865,17 +10874,15 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10912,31 +10919,31 @@
         <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -10956,20 +10963,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -10981,15 +10986,17 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>593</v>
+        <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>594</v>
+        <v>229</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11026,16 +11033,16 @@
         <v>79</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>155</v>
@@ -11059,7 +11066,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11070,9 +11077,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11081,7 +11090,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11090,23 +11099,19 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>349</v>
+        <v>595</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>350</v>
+        <v>596</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11154,7 +11159,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11166,16 +11171,16 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11186,7 +11191,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11197,7 +11202,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11209,19 +11214,19 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11270,13 +11275,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11288,10 +11293,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11300,9 +11305,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11313,28 +11318,32 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>599</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11382,13 +11391,13 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>598</v>
+        <v>406</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -11397,24 +11406,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>602</v>
+        <v>408</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11425,7 +11434,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>88</v>
@@ -11434,16 +11443,16 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>601</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>605</v>
+        <v>48</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11494,13 +11503,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11509,24 +11518,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11537,29 +11546,27 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>609</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11608,13 +11615,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11623,23 +11630,137 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AK82" t="s" s="2">
+      <c r="M83" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL82" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AL83" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN82">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11649,7 +11770,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -663,6 +663,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2262,7 +2269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5041,45 +5048,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5127,7 +5132,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5136,7 +5141,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5148,7 +5153,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5159,11 +5164,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5173,27 +5178,29 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5229,17 +5236,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5251,31 +5260,29 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5284,10 +5291,10 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5296,16 +5303,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5343,19 +5350,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5370,26 +5375,28 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5407,18 +5414,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5467,50 +5476,50 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5522,17 +5531,15 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5569,31 +5576,31 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5613,43 +5620,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5673,52 +5678,52 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5729,7 +5734,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5746,25 +5751,25 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5789,13 +5794,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5813,7 +5818,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5831,10 +5836,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5845,7 +5850,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5853,7 +5858,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5868,32 +5873,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5905,13 +5910,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5929,7 +5934,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5947,10 +5952,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5961,7 +5966,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5984,30 +5989,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6043,7 +6050,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6061,10 +6068,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6075,7 +6082,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6083,7 +6090,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6098,15 +6105,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6119,7 +6128,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6155,7 +6164,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6173,10 +6182,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6187,7 +6196,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6210,17 +6219,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6269,7 +6276,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6287,10 +6294,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6301,7 +6308,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6312,7 +6319,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6324,16 +6331,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6383,13 +6390,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6398,13 +6405,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6415,7 +6422,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6438,16 +6445,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6497,7 +6504,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6512,13 +6519,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6527,13 +6534,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6543,7 +6550,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6552,15 +6559,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6609,7 +6618,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6624,13 +6633,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6639,13 +6648,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6655,7 +6664,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6664,13 +6673,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6721,7 +6730,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6736,13 +6745,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6751,23 +6760,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6776,20 +6785,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6837,13 +6842,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6852,13 +6857,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6869,15 +6874,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
@@ -6886,24 +6891,26 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6927,13 +6934,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6951,10 +6958,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6966,24 +6973,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7009,13 +7016,13 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7041,13 +7048,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7065,7 +7072,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -7080,24 +7087,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7114,26 +7121,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7157,11 +7162,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7179,13 +7186,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7194,24 +7201,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7219,31 +7226,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7267,13 +7278,11 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7291,31 +7300,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7323,18 +7332,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7346,17 +7355,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7393,31 +7400,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7437,11 +7444,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7457,23 +7464,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7509,19 +7514,19 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7533,16 +7538,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7553,7 +7558,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7564,7 +7569,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7573,19 +7578,23 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7633,28 +7642,28 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7665,18 +7674,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7688,17 +7697,15 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7735,31 +7742,31 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7779,18 +7786,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7799,29 +7806,27 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7851,40 +7856,40 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7895,7 +7900,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7918,24 +7923,26 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7977,7 +7984,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7995,10 +8002,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8009,7 +8016,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8032,24 +8039,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8091,7 +8098,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8109,10 +8116,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8123,7 +8130,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8146,24 +8153,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8205,7 +8212,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8223,10 +8230,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8237,7 +8244,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8260,19 +8267,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8321,7 +8326,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8339,10 +8344,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8353,7 +8358,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8376,19 +8381,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8437,7 +8442,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8455,10 +8460,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8469,7 +8474,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8492,22 +8497,24 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8527,13 +8534,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8551,7 +8558,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8566,16 +8573,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8583,7 +8590,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8600,31 +8607,27 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
@@ -8645,13 +8648,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8669,7 +8672,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8684,62 +8687,66 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8759,11 +8766,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8781,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8796,35 +8805,35 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8839,13 +8848,13 @@
         <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8871,13 +8880,11 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8895,53 +8902,53 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8950,18 +8957,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>448</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8985,13 +8992,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9009,16 +9016,16 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
@@ -9027,21 +9034,21 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9049,13 +9056,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9064,16 +9071,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9121,10 +9130,10 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
@@ -9136,38 +9145,38 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9176,13 +9185,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9233,10 +9242,10 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>87</v>
@@ -9248,28 +9257,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9279,7 +9288,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9288,13 +9297,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9345,7 +9354,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9360,28 +9369,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9400,13 +9409,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9433,13 +9442,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9457,7 +9466,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9472,32 +9481,32 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
@@ -9512,13 +9521,13 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9545,13 +9554,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9569,7 +9578,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9584,28 +9593,28 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9624,17 +9633,15 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9683,7 +9690,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9698,35 +9705,35 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9738,16 +9745,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>163</v>
+        <v>504</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9773,13 +9780,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9797,7 +9804,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9812,28 +9819,28 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9852,16 +9859,16 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9887,13 +9894,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9911,13 +9918,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9926,38 +9933,38 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9966,15 +9973,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>526</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9999,13 +10008,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10023,7 +10032,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10038,16 +10047,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10055,7 +10064,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10078,13 +10087,13 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10111,13 +10120,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10135,7 +10144,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10156,18 +10165,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10175,13 +10184,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10190,17 +10199,15 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>540</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10225,13 +10232,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10249,7 +10256,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10264,24 +10271,24 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10289,13 +10296,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10304,16 +10311,16 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10339,13 +10346,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10363,7 +10370,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10378,16 +10385,16 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10395,7 +10402,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10415,18 +10422,20 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10475,7 +10484,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10490,28 +10499,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10521,7 +10530,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10530,17 +10539,15 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10589,7 +10596,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10604,13 +10611,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10619,13 +10626,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10635,25 +10642,25 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10703,7 +10710,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10718,13 +10725,13 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10733,13 +10740,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10749,7 +10756,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10758,20 +10765,18 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>163</v>
+        <v>578</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10795,13 +10800,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>589</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10819,7 +10824,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10837,53 +10842,57 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>586</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10907,13 +10916,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10931,50 +10940,50 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>151</v>
+        <v>584</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>152</v>
+        <v>592</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -10986,17 +10995,15 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11033,31 +11040,31 @@
         <v>79</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11077,20 +11084,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11102,15 +11107,17 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>595</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>596</v>
+        <v>231</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11147,16 +11154,16 @@
         <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>155</v>
@@ -11180,7 +11187,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11191,9 +11198,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11202,7 +11211,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11211,23 +11220,19 @@
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>351</v>
+        <v>597</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>352</v>
+        <v>598</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11275,7 +11280,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11287,16 +11292,16 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11307,7 +11312,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11318,7 +11323,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11330,19 +11335,19 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11391,13 +11396,13 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -11409,10 +11414,10 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11421,9 +11426,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11434,28 +11439,32 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>601</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>48</v>
+        <v>404</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11503,13 +11512,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>600</v>
+        <v>408</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11518,24 +11527,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11546,7 +11555,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>88</v>
@@ -11555,16 +11564,16 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>603</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>607</v>
+        <v>48</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11615,13 +11624,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11630,24 +11639,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11658,29 +11667,27 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>611</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11729,13 +11736,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -11744,23 +11751,137 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="M84" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AL84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11770,7 +11891,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -623,6 +623,19 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
@@ -671,6 +684,9 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2269,7 +2285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4604,7 +4620,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4718,7 +4734,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -4853,7 +4869,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4939,7 +4955,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -4961,13 +4977,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5053,7 +5069,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -5075,13 +5091,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5162,45 +5178,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5248,7 +5262,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5257,7 +5271,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5269,7 +5283,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5280,11 +5294,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5294,27 +5308,29 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5350,17 +5366,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5372,31 +5390,29 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5405,10 +5421,10 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5417,16 +5433,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5464,19 +5480,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5491,26 +5505,28 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5528,18 +5544,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5588,50 +5606,50 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5643,17 +5661,15 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5690,31 +5706,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5734,43 +5750,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5794,52 +5808,52 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5850,7 +5864,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5867,25 +5881,25 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5910,13 +5924,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5934,7 +5948,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5952,10 +5966,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5966,7 +5980,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5974,7 +5988,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5989,32 +6003,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6026,13 +6040,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6050,7 +6064,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6068,10 +6082,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6082,7 +6096,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6105,30 +6119,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6164,7 +6180,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6182,10 +6198,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6196,7 +6212,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6204,7 +6220,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6219,15 +6235,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6240,7 +6258,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6276,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6294,10 +6312,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6308,7 +6326,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6331,17 +6349,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6390,7 +6406,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6408,10 +6424,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6422,7 +6438,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6433,7 +6449,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6445,16 +6461,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6504,13 +6520,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6519,13 +6535,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6536,7 +6552,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6559,16 +6575,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6618,7 +6634,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6633,13 +6649,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6648,13 +6664,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6664,7 +6680,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6673,15 +6689,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6745,28 +6763,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6776,7 +6794,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6785,13 +6803,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6842,7 +6860,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6857,38 +6875,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6897,20 +6915,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6958,13 +6972,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6973,13 +6987,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6990,15 +7004,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7007,24 +7021,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7048,13 +7064,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7072,10 +7088,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -7087,24 +7103,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7130,13 +7146,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7162,13 +7178,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7186,7 +7202,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7201,24 +7217,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7235,26 +7251,24 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7278,11 +7292,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7300,13 +7316,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7315,24 +7331,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7340,31 +7356,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7388,13 +7408,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7412,31 +7430,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7444,18 +7462,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7467,17 +7485,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7514,31 +7530,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7558,11 +7574,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7578,23 +7594,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7630,19 +7644,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7654,16 +7668,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7674,7 +7688,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7685,7 +7699,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7694,19 +7708,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7754,28 +7772,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7786,18 +7804,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7809,17 +7827,15 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7856,31 +7872,31 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7900,18 +7916,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7920,29 +7936,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7972,40 +7986,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8016,7 +8030,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8039,24 +8053,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8098,7 +8114,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8116,10 +8132,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8130,7 +8146,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8153,24 +8169,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8212,7 +8228,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8230,10 +8246,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8244,7 +8260,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8267,24 +8283,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8326,7 +8342,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8344,10 +8360,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8358,7 +8374,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8381,19 +8397,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8442,7 +8456,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8460,10 +8474,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8474,7 +8488,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8497,19 +8511,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8558,7 +8572,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8576,10 +8590,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8590,7 +8604,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8613,66 +8627,68 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8687,16 +8703,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8704,7 +8720,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8721,31 +8737,27 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8766,13 +8778,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8790,7 +8802,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8805,62 +8817,66 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8880,11 +8896,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8902,7 +8920,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8917,35 +8935,35 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
@@ -8960,13 +8978,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8992,13 +9010,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9016,53 +9032,53 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9071,18 +9087,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>450</v>
+        <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9106,13 +9122,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9130,16 +9146,16 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -9148,21 +9164,21 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9170,13 +9186,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9185,16 +9201,18 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9242,10 +9260,10 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>87</v>
@@ -9257,38 +9275,38 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9297,13 +9315,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9354,10 +9372,10 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>87</v>
@@ -9369,28 +9387,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9400,7 +9418,7 @@
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9409,13 +9427,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9466,7 +9484,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9481,28 +9499,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9521,13 +9539,13 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9554,13 +9572,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9578,7 +9596,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9593,32 +9611,32 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
@@ -9633,13 +9651,13 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9666,13 +9684,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9690,7 +9708,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9705,28 +9723,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9745,17 +9763,15 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9804,7 +9820,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9819,35 +9835,35 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>88</v>
@@ -9859,16 +9875,16 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9894,13 +9910,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9918,7 +9934,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9933,28 +9949,28 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9973,16 +9989,16 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>526</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10008,13 +10024,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10032,13 +10048,13 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -10047,38 +10063,38 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10087,15 +10103,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10120,13 +10138,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10144,7 +10162,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10159,16 +10177,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10176,7 +10194,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10199,13 +10217,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10232,13 +10250,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10256,7 +10274,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10277,18 +10295,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10296,13 +10314,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10311,17 +10329,15 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>163</v>
+        <v>545</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M71" t="s" s="2">
         <v>546</v>
       </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10346,13 +10362,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10370,7 +10386,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10385,24 +10401,24 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10410,13 +10426,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10425,16 +10441,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>554</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10460,13 +10476,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10484,7 +10500,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10499,16 +10515,16 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10516,7 +10532,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10536,18 +10552,20 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="K73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10596,7 +10614,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10611,28 +10629,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10642,7 +10660,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10651,17 +10669,15 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10710,7 +10726,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10725,13 +10741,13 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10740,13 +10756,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10756,25 +10772,25 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10824,7 +10840,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10839,28 +10855,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10870,7 +10886,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10879,20 +10895,18 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>583</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>589</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10916,13 +10930,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10940,7 +10954,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10958,53 +10972,57 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>149</v>
+        <v>591</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11028,13 +11046,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>595</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11052,50 +11070,50 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>151</v>
+        <v>589</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>152</v>
+        <v>597</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11107,17 +11125,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11154,31 +11170,31 @@
         <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11198,20 +11214,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11223,15 +11237,17 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>597</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>598</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11268,16 +11284,16 @@
         <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE79" t="s" s="2">
         <v>155</v>
@@ -11301,7 +11317,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11314,7 +11330,9 @@
       <c r="A80" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11323,7 +11341,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11332,23 +11350,19 @@
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>353</v>
+        <v>602</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>354</v>
+        <v>603</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11396,7 +11410,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11408,16 +11422,16 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11428,7 +11442,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11439,7 +11453,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11451,19 +11465,19 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11512,13 +11526,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11530,10 +11544,10 @@
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11542,9 +11556,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11555,28 +11569,32 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>603</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>48</v>
+        <v>409</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11624,13 +11642,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>602</v>
+        <v>413</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11639,24 +11657,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>606</v>
+        <v>415</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11667,7 +11685,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>88</v>
@@ -11676,16 +11694,16 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>608</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11736,13 +11754,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -11751,10 +11769,10 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>611</v>
@@ -11763,12 +11781,12 @@
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11779,19 +11797,19 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>613</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>614</v>
@@ -11799,9 +11817,7 @@
       <c r="L84" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>616</v>
-      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11850,13 +11866,13 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -11865,23 +11881,137 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AK84" t="s" s="2">
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL84" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AL85" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN84">
+  <autoFilter ref="A1:AN85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11891,7 +12021,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -672,11 +672,17 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
 </t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>recorder</t>
@@ -5094,10 +5100,10 @@
         <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5183,7 +5189,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5205,10 +5211,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5294,11 +5300,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5320,16 +5326,16 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5378,7 +5384,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5410,7 +5416,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5433,16 +5439,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5480,7 +5486,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5490,7 +5496,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5505,27 +5511,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5547,16 +5553,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5606,7 +5612,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5621,24 +5627,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5750,11 +5756,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5776,13 +5782,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5864,7 +5870,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5890,16 +5896,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5924,13 +5930,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5948,7 +5954,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5969,7 +5975,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5980,7 +5986,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6006,16 +6012,16 @@
         <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6043,10 +6049,10 @@
         <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6064,7 +6070,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6082,10 +6088,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6096,7 +6102,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6122,29 +6128,29 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6180,7 +6186,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6198,10 +6204,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6212,7 +6218,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6238,13 +6244,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6258,7 +6264,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6294,7 +6300,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6312,10 +6318,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6326,7 +6332,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6349,13 +6355,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6406,7 +6412,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6424,10 +6430,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6438,7 +6444,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6461,16 +6467,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6520,7 +6526,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6538,10 +6544,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6552,7 +6558,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6575,16 +6581,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6634,7 +6640,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6649,13 +6655,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6666,7 +6672,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6692,13 +6698,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6748,7 +6754,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6763,13 +6769,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6780,11 +6786,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6803,13 +6809,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6860,7 +6866,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6875,13 +6881,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6892,11 +6898,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6915,13 +6921,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6972,7 +6978,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6987,13 +6993,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7004,11 +7010,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7027,19 +7033,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7088,7 +7094,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7103,13 +7109,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7120,7 +7126,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7146,13 +7152,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7178,13 +7184,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7202,7 +7208,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7217,24 +7223,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7260,13 +7266,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7292,13 +7298,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7316,7 +7322,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7331,16 +7337,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7348,7 +7354,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7374,16 +7380,16 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7412,7 +7418,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7430,7 +7436,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7448,13 +7454,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7462,7 +7468,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7574,11 +7580,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7600,13 +7606,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7688,7 +7694,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7711,19 +7717,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7772,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7790,10 +7796,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7804,7 +7810,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7916,11 +7922,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7942,13 +7948,13 @@
         <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8030,7 +8036,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8056,23 +8062,23 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8114,7 +8120,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8132,10 +8138,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8146,7 +8152,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,13 +8178,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8228,7 +8234,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8246,10 +8252,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8260,7 +8266,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8286,21 +8292,21 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8342,7 +8348,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8360,10 +8366,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8374,7 +8380,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8400,14 +8406,14 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8456,7 +8462,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8474,10 +8480,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8488,7 +8494,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8511,19 +8517,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8572,7 +8578,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8590,10 +8596,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8604,7 +8610,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8630,16 +8636,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8688,7 +8694,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8706,10 +8712,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8720,7 +8726,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8746,10 +8752,10 @@
         <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8757,7 +8763,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8778,13 +8784,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8802,7 +8808,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8817,16 +8823,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8834,7 +8840,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8857,70 +8863,70 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8935,13 +8941,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8952,11 +8958,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8978,13 +8984,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9010,11 +9016,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9032,7 +9038,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9047,28 +9053,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9090,13 +9096,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9125,10 +9131,10 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9146,7 +9152,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9155,7 +9161,7 @@
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -9164,21 +9170,21 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9201,17 +9207,17 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9260,7 +9266,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9278,10 +9284,10 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9292,7 +9298,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9315,13 +9321,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9372,7 +9378,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>87</v>
@@ -9387,28 +9393,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9427,13 +9433,13 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9484,7 +9490,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9499,28 +9505,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9539,13 +9545,13 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9596,7 +9602,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9611,24 +9617,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9651,13 +9657,13 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9687,10 +9693,10 @@
         <v>166</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9708,7 +9714,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9729,22 +9735,22 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9763,13 +9769,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9820,7 +9826,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9835,28 +9841,28 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9875,16 +9881,16 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9934,7 +9940,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9949,28 +9955,28 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9992,13 +9998,13 @@
         <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10027,10 +10033,10 @@
         <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10048,7 +10054,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10063,16 +10069,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10080,11 +10086,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10103,16 +10109,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10162,7 +10168,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10177,16 +10183,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10194,7 +10200,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10220,10 +10226,10 @@
         <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10253,10 +10259,10 @@
         <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10274,7 +10280,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10295,10 +10301,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10306,7 +10312,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10329,13 +10335,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10386,7 +10392,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10407,10 +10413,10 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10418,7 +10424,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10444,13 +10450,13 @@
         <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10479,10 +10485,10 @@
         <v>166</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10500,7 +10506,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10515,16 +10521,16 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10532,7 +10538,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10555,16 +10561,16 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10614,7 +10620,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10629,16 +10635,16 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10646,7 +10652,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10669,13 +10675,13 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10726,7 +10732,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10741,13 +10747,13 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10758,11 +10764,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10781,16 +10787,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10840,7 +10846,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10855,13 +10861,13 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10872,7 +10878,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10895,16 +10901,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10954,7 +10960,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10972,10 +10978,10 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -10986,11 +10992,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11012,16 +11018,16 @@
         <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11049,10 +11055,10 @@
         <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11070,7 +11076,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11088,21 +11094,21 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11214,11 +11220,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11240,13 +11246,13 @@
         <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11328,10 +11334,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>79</v>
@@ -11353,13 +11359,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11442,7 +11448,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11465,19 +11471,19 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11526,7 +11532,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11544,10 +11550,10 @@
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11558,7 +11564,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11584,16 +11590,16 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11642,7 +11648,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11660,10 +11666,10 @@
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11674,7 +11680,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11697,13 +11703,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11754,7 +11760,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11769,24 +11775,24 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11812,10 +11818,10 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11866,7 +11872,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11884,10 +11890,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11898,7 +11904,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11921,16 +11927,16 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11980,7 +11986,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11995,13 +12001,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -574,11 +574,11 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -4173,7 +4173,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4743,7 +4743,7 @@
         <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -636,17 +636,17 @@
     <t>Request must leave draft status before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -1676,11 +1676,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2310,7 +2310,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>78</v>
@@ -10097,7 +10097,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -2301,43 +2301,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>

--- a/branches/StructureDefinition-be-referralprescription-nursing.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="607">
   <si>
     <t>Property</t>
   </si>
@@ -287,200 +287,204 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {request-statusReason}
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the resource.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -558,27 +562,24 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
-    <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
-    <t>Info about the other parties that have to take part in the prescription.</t>
+    <t>Other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -613,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -623,30 +624,17 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>latestDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>The prescription must have left the draft status befor this moment</t>
-  </si>
-  <si>
-    <t>Request must leave draft status before</t>
-  </si>
-  <si>
-    <t>performertasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
-</t>
-  </si>
-  <si>
-    <t>BePerformerTaskReference</t>
-  </si>
-  <si>
-    <t>List of references to the tasks performed by each performer</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -672,29 +660,6 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
-</t>
-  </si>
-  <si>
-    <t>BePSSInfo</t>
-  </si>
-  <si>
-    <t>Prescription Search Support Info</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
-</t>
-  </si>
-  <si>
-    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
-  </si>
-  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1676,11 +1641,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitionerroles</t>
+    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -1886,31 +1851,6 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.extension</t>
-  </si>
-  <si>
-    <t>bodyLaterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
-</t>
-  </si>
-  <si>
-    <t>BeExtLaterality</t>
-  </si>
-  <si>
-    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2291,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2310,7 +2250,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3509,13 +3449,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3566,7 +3506,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3587,7 +3527,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3598,7 +3538,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3669,7 +3609,7 @@
         <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
@@ -3678,7 +3618,7 @@
         <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3710,7 +3650,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3736,13 +3676,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3750,7 +3690,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3792,7 +3732,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3824,7 +3764,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3847,13 +3787,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3880,10 +3820,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3892,17 +3832,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3934,10 +3874,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3959,13 +3899,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3992,11 +3932,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -4014,7 +3954,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4049,7 +3989,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4059,7 +3999,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4071,13 +4011,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4149,7 +4089,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4173,7 +4113,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4626,7 +4566,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4743,7 +4683,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4875,7 +4815,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4956,43 +4896,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5040,7 +4982,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5049,7 +4991,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5061,7 +5003,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5070,13 +5012,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5085,7 +5025,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5094,18 +5034,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5142,19 +5084,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5163,33 +5103,33 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5202,24 +5142,26 @@
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5268,7 +5210,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5277,66 +5219,62 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5384,19 +5322,19 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5405,7 +5343,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5416,11 +5354,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5430,25 +5368,25 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5486,9 +5424,11 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5496,7 +5436,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5508,31 +5448,29 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5547,24 +5485,26 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5588,13 +5528,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5612,13 +5552,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5627,24 +5567,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5664,19 +5604,23 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5700,13 +5644,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5724,7 +5668,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5736,16 +5680,16 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5756,18 +5700,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5776,33 +5720,35 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5826,40 +5772,40 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5870,7 +5816,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5878,7 +5824,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5887,26 +5833,24 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5918,7 +5862,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5930,13 +5874,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5954,7 +5898,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5972,10 +5916,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5986,7 +5930,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6009,20 +5953,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6046,13 +5986,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6070,7 +6010,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6088,10 +6028,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6102,7 +6042,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6110,7 +6050,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6125,32 +6065,30 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6186,7 +6124,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6204,10 +6142,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6218,7 +6156,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6226,10 +6164,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6241,16 +6179,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6264,7 +6202,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6300,13 +6238,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6315,13 +6253,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6332,7 +6270,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6343,7 +6281,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6355,15 +6293,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6412,13 +6352,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6427,13 +6367,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6442,23 +6382,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2"